--- a/src/test/resources/testdata/DataCMS.xlsx
+++ b/src/test/resources/testdata/DataCMS.xlsx
@@ -4,31 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17850" activeTab="1"/>
+    <workbookView windowHeight="22380" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sample" sheetId="1" r:id="rId1"/>
-    <sheet name="sampleDetail" sheetId="2" r:id="rId2"/>
+    <sheet name="sampleDetail" sheetId="1" r:id="rId1"/>
+    <sheet name="sampleList" sheetId="2" r:id="rId2"/>
+    <sheet name="ibDetail" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="304">
   <si>
     <t>name</t>
   </si>
@@ -72,7 +60,7 @@
     <t>Critical reading log of two article</t>
   </si>
   <si>
-    <t>/gender-studies</t>
+    <t>/samples/essay/gender-studies</t>
   </si>
   <si>
     <t>Critical reading log of two article short intro lorem ipsum</t>
@@ -99,7 +87,7 @@
     <t>New Job Opportunities in the Age of Artificial Intelligence</t>
   </si>
   <si>
-    <t>/persuasive-essay</t>
+    <t>/samples/essay/persuasive-essay</t>
   </si>
   <si>
     <t>Undergraduate 3-4</t>
@@ -120,7 +108,7 @@
     <t>MBA application essay</t>
   </si>
   <si>
-    <t>/mba-application</t>
+    <t>/samples/essay/mba-application</t>
   </si>
   <si>
     <t>MBA application essay lorem ipsum</t>
@@ -141,7 +129,7 @@
     <t>The Tells Teeth Tale</t>
   </si>
   <si>
-    <t>/the-tells-teeth-tale</t>
+    <t>/samples/essay/anthropology</t>
   </si>
   <si>
     <t>The Tells Teeth Tale lorem ipsum</t>
@@ -159,7 +147,7 @@
     <t>Human Trafficking</t>
   </si>
   <si>
-    <t>/human-trafficking</t>
+    <t>/samples/essay/criminal-law</t>
   </si>
   <si>
     <t>October 21, 2022</t>
@@ -171,7 +159,7 @@
     <t>The Role of Genetics in Mental Health</t>
   </si>
   <si>
-    <t>/health-care</t>
+    <t>/samples/discussion-post/health-care</t>
   </si>
   <si>
     <t>The Role of Genetics in Mental Health short intro</t>
@@ -189,7 +177,7 @@
     <t>Analysis of History</t>
   </si>
   <si>
-    <t>/history</t>
+    <t>/discussion-post/history</t>
   </si>
   <si>
     <t>of History</t>
@@ -201,13 +189,10 @@
     <t>Chicago</t>
   </si>
   <si>
-    <t>/discussion-post/history</t>
-  </si>
-  <si>
     <t>Psychological Benefits of Breastfeeding</t>
   </si>
   <si>
-    <t>/statistics</t>
+    <t>/samples/discussion-post/statistics</t>
   </si>
   <si>
     <t>Statistics</t>
@@ -219,7 +204,7 @@
     <t>Criminal law</t>
   </si>
   <si>
-    <t>/criminal-law</t>
+    <t>/samples/critical-thinking/criminal-law</t>
   </si>
   <si>
     <t>Critical thinking</t>
@@ -231,7 +216,7 @@
     <t>Culture &amp; society</t>
   </si>
   <si>
-    <t>/culture-and-society</t>
+    <t>/samples/critical-thinking/culture-and-society</t>
   </si>
   <si>
     <t>Cultural and Ethnic Studies</t>
@@ -243,7 +228,7 @@
     <t>Correction processes</t>
   </si>
   <si>
-    <t>/criminal-law-term</t>
+    <t>/samples/term-paper/criminal-law</t>
   </si>
   <si>
     <t>Term paper</t>
@@ -255,7 +240,7 @@
     <t>Dataset Statistical Analysis and Interpretation</t>
   </si>
   <si>
-    <t>/homework-statistics</t>
+    <t>/samples/homework/statistics</t>
   </si>
   <si>
     <t>Homework</t>
@@ -267,7 +252,7 @@
     <t>Ethical Principles in Educational Testing</t>
   </si>
   <si>
-    <t>/research-papers-apa</t>
+    <t>/samples/research-paper/apa</t>
   </si>
   <si>
     <t>Research paper</t>
@@ -282,7 +267,7 @@
     <t>The Gun Control Debate in the U.S.</t>
   </si>
   <si>
-    <t>/research-papers-gun-control</t>
+    <t>/samples/research-paper/gun-control</t>
   </si>
   <si>
     <t>/research-papers/gun-control</t>
@@ -291,7 +276,7 @@
     <t>Factors influencing management practices in contemporary business world</t>
   </si>
   <si>
-    <t>/research-papers-business-managment</t>
+    <t>/samples/research-paper/business-managment</t>
   </si>
   <si>
     <t>/research-papers/business-managment</t>
@@ -300,7 +285,7 @@
     <t>The impact of digital communication on psychological well-being</t>
   </si>
   <si>
-    <t>/research-proposal-phd</t>
+    <t>/samples/research-proposal/phd</t>
   </si>
   <si>
     <t>PhD</t>
@@ -321,7 +306,7 @@
     <t>To what extent can Apple expand its distribution networks to increase market share and competitive advantage?</t>
   </si>
   <si>
-    <t>/research-proposal-mla</t>
+    <t>/samples/research-proposal/mla</t>
   </si>
   <si>
     <t>Doctoral</t>
@@ -333,7 +318,7 @@
     <t>Personal statement</t>
   </si>
   <si>
-    <t>/personal-statement-medicine</t>
+    <t>/samples/personal-statement/medicine</t>
   </si>
   <si>
     <t>Medicine</t>
@@ -345,7 +330,7 @@
     <t>Baltimore PD Corruption VS New Orleans PD Corruption</t>
   </si>
   <si>
-    <t>/powerpoint-presentation-apa</t>
+    <t>/samples/powerpoint-presentation/powerpoint-presentation-apa</t>
   </si>
   <si>
     <t>PowerPoint Presentation</t>
@@ -357,7 +342,10 @@
     <t>Graduation speech</t>
   </si>
   <si>
-    <t>/speech-graduation</t>
+    <t>/samples/speech/graduation</t>
+  </si>
+  <si>
+    <t>Graduation speech A</t>
   </si>
   <si>
     <t>October 10, 2021</t>
@@ -369,7 +357,10 @@
     <t>/speech/graduation</t>
   </si>
   <si>
-    <t>/speech-high-school</t>
+    <t>/samples/speech/high-school</t>
+  </si>
+  <si>
+    <t>Graduation speech B</t>
   </si>
   <si>
     <t>High School</t>
@@ -381,7 +372,7 @@
     <t>How does the change in the concentration of phenolphthalein affect its absorbance</t>
   </si>
   <si>
-    <t>/lab-report-spectrophotometry-lab</t>
+    <t>/samples/lab-report/spectrophotometry-lab</t>
   </si>
   <si>
     <t>Lab report</t>
@@ -396,7 +387,7 @@
     <t>Determination of the Equilibrium Constant for a Chemical Reaction</t>
   </si>
   <si>
-    <t>/lab-report-chemistry</t>
+    <t>/samples/lab-report/chemistry</t>
   </si>
   <si>
     <t>Chemistry</t>
@@ -408,7 +399,7 @@
     <t>Ohms' Law</t>
   </si>
   <si>
-    <t>/lab-report-physics</t>
+    <t>/samples/lab-report/physics</t>
   </si>
   <si>
     <t>Physics</t>
@@ -420,7 +411,7 @@
     <t>How does carbon (IV) oxide concentration affect the rate of photosynthesis?</t>
   </si>
   <si>
-    <t>/lab-report-biology</t>
+    <t>/samples/lab-report/biology</t>
   </si>
   <si>
     <t>/lab-report/biology</t>
@@ -429,7 +420,7 @@
     <t>Optimism Scale Development</t>
   </si>
   <si>
-    <t>/lab-report-statistics</t>
+    <t>/samples/lab-report/statistics</t>
   </si>
   <si>
     <t>October 30, 2019</t>
@@ -441,7 +432,7 @@
     <t>SIOP Lesson plan</t>
   </si>
   <si>
-    <t>/lesson-plan-education</t>
+    <t>/samples/lesson-plan/education</t>
   </si>
   <si>
     <t>Lesson plan</t>
@@ -456,7 +447,7 @@
     <t>Nursing care plan</t>
   </si>
   <si>
-    <t>/nursing-care-plan-nursing</t>
+    <t>/samples/nursing-plan/nursing</t>
   </si>
   <si>
     <t>Nursing plan</t>
@@ -468,10 +459,13 @@
     <t>/nursing-care-plan/nursing</t>
   </si>
   <si>
-    <t>The Progressive Evolutionary Impact of Turing Test into Modern Progressive AI and Machine Learning</t>
+    <t>The Progressive Evolutionary Impact of Turing Test into Modern Progressive AI and Machine Learning A</t>
   </si>
   <si>
-    <t>/epq-essay</t>
+    <t>/samples/epq-essay/essay</t>
+  </si>
+  <si>
+    <t>The Progressive Evolutionary Impact of Turing Test into Modern Progressive AI and Machine Learning</t>
   </si>
   <si>
     <t>EPQ Essay</t>
@@ -483,7 +477,10 @@
     <t>/epq/essay</t>
   </si>
   <si>
-    <t>/epq-presentation</t>
+    <t>The Progressive Evolutionary Impact of Turing Test into Modern Progressive AI and Machine Learning B</t>
+  </si>
+  <si>
+    <t>/samples/epq-presentation/presentation</t>
   </si>
   <si>
     <t>EPQ Presentation</t>
@@ -495,7 +492,7 @@
     <t>Personality Development</t>
   </si>
   <si>
-    <t>/question-answer-psychology</t>
+    <t>/samples/question-answer/psychology</t>
   </si>
   <si>
     <t>Question-Answer</t>
@@ -746,16 +743,202 @@
   <si>
     <t>Anchor 15</t>
   </si>
+  <si>
+    <t>Trade Protectionism</t>
+  </si>
+  <si>
+    <t>/samples/ib/trade-protectionism</t>
+  </si>
+  <si>
+    <t>IB Level</t>
+  </si>
+  <si>
+    <t>Internal assessment</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>/ib/trade-protectionism</t>
+  </si>
+  <si>
+    <t>How does the Tension affect the Frequency of a standing wave?</t>
+  </si>
+  <si>
+    <t>/samples/ib/how-does-the-tension-affect-the-frequency-of-standing-wave</t>
+  </si>
+  <si>
+    <t>/ib/how-does-the-tension-affect-the-frequency-of-standing-wave</t>
+  </si>
+  <si>
+    <t>Do We Need Custodians of Knowledge? Discuss With Reference to Two Areas of Knowledge</t>
+  </si>
+  <si>
+    <t>/samples/ib/do-we-need-custodians-of-knowledge</t>
+  </si>
+  <si>
+    <t>Theory of Knowledge</t>
+  </si>
+  <si>
+    <t>/ib/do-we-need-custodians-of-knowledge</t>
+  </si>
+  <si>
+    <t>Water Salinity And Specific Heat Capacity</t>
+  </si>
+  <si>
+    <t>/samples/ib/physics-hl-ia</t>
+  </si>
+  <si>
+    <t>/ib/physics-hl-ia</t>
+  </si>
+  <si>
+    <t>Calculating the Volume of a Vase</t>
+  </si>
+  <si>
+    <t>/samples/ib/math-aa-hl</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>/ib/math-aa-hl</t>
+  </si>
+  <si>
+    <t>Are some types of knowledge less open to interpretation than others?</t>
+  </si>
+  <si>
+    <t>/samples/ib/tok-essay-2023</t>
+  </si>
+  <si>
+    <t>/ib/tok-essay-2023</t>
+  </si>
+  <si>
+    <t>What effect do different salt concentrations have on Rotala Indica plant growth (this will be determined by determining the plant's mass after a week)?</t>
+  </si>
+  <si>
+    <t>/samples/ib/bio-ee</t>
+  </si>
+  <si>
+    <t>/ib/bio-ee</t>
+  </si>
+  <si>
+    <t>Mergers and Acquisition</t>
+  </si>
+  <si>
+    <t>/samples/ib/business-ia</t>
+  </si>
+  <si>
+    <t>Business and Management</t>
+  </si>
+  <si>
+    <t>/ib/business-ia</t>
+  </si>
+  <si>
+    <t>Modelling a soccer penalty shot.</t>
+  </si>
+  <si>
+    <t>/samples/ib/high-school-math-ia</t>
+  </si>
+  <si>
+    <t>High school</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>/ib/high-school-math-ia</t>
+  </si>
+  <si>
+    <t>If “the mathematician’s patterns, like the painter’s and the poet’s, must be beautiful” (G.H. Hardy), how might this impact the production of knowledge? Discuss with reference to mathematics and the arts</t>
+  </si>
+  <si>
+    <t>/samples/ib/november-2023-tok-essay</t>
+  </si>
+  <si>
+    <t>/ib/november-2023-tok-essay</t>
+  </si>
+  <si>
+    <t>Correlation between HIV Mortality and GDP</t>
+  </si>
+  <si>
+    <t>/samples/ib/math-sl-ia</t>
+  </si>
+  <si>
+    <t>/ib/math-sl-ia</t>
+  </si>
+  <si>
+    <t>Increasing Tax for Cigarettes and Sodas to Reduce Cancer</t>
+  </si>
+  <si>
+    <t>/samples/ib/microeconomics-ia</t>
+  </si>
+  <si>
+    <t>/ib/microeconomics-ia</t>
+  </si>
+  <si>
+    <t>Is Replicability Necessary in The Production of Knowledge?</t>
+  </si>
+  <si>
+    <t>/samples/ib/may-2023-tok-essay</t>
+  </si>
+  <si>
+    <t>Theory of knowledge</t>
+  </si>
+  <si>
+    <t>/ib/may-2023-tok-essay</t>
+  </si>
+  <si>
+    <t>Relationship between Instagram Following and Salary</t>
+  </si>
+  <si>
+    <t>/samples/ib/math-ia</t>
+  </si>
+  <si>
+    <t>/ib/math-ia</t>
+  </si>
+  <si>
+    <t>To What Extent Did The WWI Contribute To The Advancement Of Women’s Rights In The United States?</t>
+  </si>
+  <si>
+    <t>/samples/ib/history-ia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">History </t>
+  </si>
+  <si>
+    <t>/ib/history-ia</t>
+  </si>
+  <si>
+    <t>Cultural Feminins through artwork installation of Brick</t>
+  </si>
+  <si>
+    <t>/samples/ib/extended-essay</t>
+  </si>
+  <si>
+    <t>Art (Fine arts, Performing arts)</t>
+  </si>
+  <si>
+    <t>/ib/extended-essay</t>
+  </si>
+  <si>
+    <t>Does all knowledge impose ethical obligations on those who know it?</t>
+  </si>
+  <si>
+    <t>/samples/ib/tok-exhibition-level</t>
+  </si>
+  <si>
+    <t>/ib/tok-exhibition-level</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -792,13 +975,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -807,23 +983,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -838,40 +1037,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -885,16 +1059,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -909,7 +1075,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -929,15 +1102,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -953,18 +1136,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF00FF00"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,19 +1177,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,7 +1189,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,7 +1201,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,7 +1219,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,19 +1261,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,37 +1291,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,19 +1309,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,19 +1321,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1169,21 +1352,6 @@
       </top>
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1221,6 +1389,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1250,190 +1453,161 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
@@ -1441,16 +1615,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
@@ -1458,57 +1635,58 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
     <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -1703,7 +1881,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1712,7 +1890,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1936,76 +2114,75 @@
   <dimension ref="A1:Z984"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="F2" sqref="F2:F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="29.5047619047619" customWidth="1"/>
-    <col min="2" max="2" width="47.3238095238095" customWidth="1"/>
-    <col min="3" max="3" width="90.5333333333333" customWidth="1"/>
-    <col min="4" max="4" width="40.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="42.4285714285714" customWidth="1"/>
-    <col min="6" max="6" width="15.8761904761905" customWidth="1"/>
-    <col min="7" max="7" width="21.4190476190476" customWidth="1"/>
+    <col min="1" max="1" width="29.5089285714286" customWidth="1"/>
+    <col min="2" max="2" width="51.25" customWidth="1"/>
+    <col min="3" max="4" width="90.5357142857143" customWidth="1"/>
+    <col min="5" max="5" width="82.6785714285714" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
+    <col min="7" max="7" width="21.4196428571429" customWidth="1"/>
     <col min="8" max="8" width="32.4285714285714" customWidth="1"/>
     <col min="9" max="9" width="30.4285714285714" customWidth="1"/>
-    <col min="13" max="13" width="35.8666666666667" customWidth="1"/>
+    <col min="13" max="13" width="35.8660714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" spans="1:26">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="12.75" spans="1:26">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:26">
       <c r="A2" s="2" t="s">
@@ -2023,7 +2200,7 @@
       <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -2032,13 +2209,13 @@
       <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>19</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="6">
         <v>2</v>
       </c>
       <c r="L2" s="2"/>
@@ -2059,7 +2236,7 @@
       <c r="Y2" s="9"/>
       <c r="Z2" s="9"/>
     </row>
-    <row r="3" ht="26.25" spans="1:26">
+    <row r="3" ht="24.75" spans="1:26">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -2069,13 +2246,13 @@
       <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -2084,13 +2261,13 @@
       <c r="H3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="6">
         <v>5</v>
       </c>
       <c r="L3" s="2"/>
@@ -2127,7 +2304,7 @@
       <c r="E4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -2136,16 +2313,16 @@
       <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>33</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="6">
         <v>2</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="6">
         <v>200</v>
       </c>
       <c r="M4" s="2" t="s">
@@ -2165,7 +2342,7 @@
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
     </row>
-    <row r="5" ht="15" spans="1:26">
+    <row r="5" ht="14.75" spans="1:26">
       <c r="A5" s="2" t="s">
         <v>36</v>
       </c>
@@ -2181,7 +2358,7 @@
       <c r="E5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -2190,16 +2367,16 @@
       <c r="H5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="6">
         <v>6</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="6">
         <v>1200</v>
       </c>
       <c r="M5" s="2" t="s">
@@ -2233,7 +2410,7 @@
         <v>42</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -2242,11 +2419,11 @@
       <c r="H6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="14" t="s">
+      <c r="I6" s="10"/>
+      <c r="J6" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="6">
         <v>5</v>
       </c>
       <c r="L6" s="2"/>
@@ -2283,20 +2460,20 @@
       <c r="E7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="6">
         <v>2</v>
       </c>
       <c r="L7" s="2"/>
@@ -2333,7 +2510,7 @@
       <c r="E8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -2342,18 +2519,18 @@
       <c r="H8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="6">
         <v>4</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
@@ -2371,21 +2548,21 @@
     </row>
     <row r="9" customHeight="1" spans="1:26">
       <c r="A9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -2394,20 +2571,20 @@
       <c r="H9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="6">
+        <v>4</v>
+      </c>
+      <c r="L9" s="6">
+        <v>800</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="12">
-        <v>4</v>
-      </c>
-      <c r="L9" s="12">
-        <v>800</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
@@ -2425,37 +2602,37 @@
     </row>
     <row r="10" customHeight="1" spans="1:26">
       <c r="A10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="6">
         <v>8</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
@@ -2473,43 +2650,43 @@
     </row>
     <row r="11" customHeight="1" spans="1:26">
       <c r="A11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="6">
+        <v>18</v>
+      </c>
+      <c r="L11" s="6">
+        <v>2000</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="12">
-        <v>18</v>
-      </c>
-      <c r="L11" s="12">
-        <v>2000</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
@@ -2527,41 +2704,41 @@
     </row>
     <row r="12" customHeight="1" spans="1:26">
       <c r="A12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J12" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="6">
         <v>8</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
@@ -2579,39 +2756,39 @@
     </row>
     <row r="13" customHeight="1" spans="1:26">
       <c r="A13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="F13" s="3"/>
       <c r="G13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="J13" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="6">
         <v>22</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
@@ -2629,39 +2806,39 @@
     </row>
     <row r="14" customHeight="1" spans="1:26">
       <c r="A14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="6">
         <v>11</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
@@ -2679,41 +2856,41 @@
     </row>
     <row r="15" customHeight="1" spans="1:26">
       <c r="A15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I15" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="6">
         <v>5</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
@@ -2731,43 +2908,43 @@
     </row>
     <row r="16" customHeight="1" spans="1:26">
       <c r="A16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I16" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" s="10" t="s">
         <v>33</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="6">
         <v>10</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="6">
         <v>1000</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
@@ -2785,41 +2962,41 @@
     </row>
     <row r="17" customHeight="1" spans="1:26">
       <c r="A17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="J17" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K17" s="12">
+      <c r="K17" s="6">
         <v>12</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
@@ -2837,39 +3014,39 @@
     </row>
     <row r="18" customHeight="1" spans="1:26">
       <c r="A18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="H18" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I18" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="10" t="s">
         <v>33</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K18" s="6">
         <v>9</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
@@ -2887,39 +3064,39 @@
     </row>
     <row r="19" customHeight="1" spans="1:26">
       <c r="A19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="C19" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="6"/>
+        <v>99</v>
+      </c>
+      <c r="F19" s="3"/>
       <c r="G19" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="6">
         <v>2</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
@@ -2937,41 +3114,41 @@
     </row>
     <row r="20" customHeight="1" spans="1:26">
       <c r="A20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F20" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>93</v>
+        <v>105</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K20" s="12">
+      <c r="K20" s="6">
         <v>12</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
@@ -2989,21 +3166,21 @@
     </row>
     <row r="21" customHeight="1" spans="1:26">
       <c r="A21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F21" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>110</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -3012,16 +3189,16 @@
       <c r="H21" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="10" t="s">
         <v>33</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="6">
         <v>2</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="6">
         <v>1111</v>
       </c>
       <c r="M21" s="2" t="s">
@@ -3043,41 +3220,41 @@
     </row>
     <row r="22" customHeight="1" spans="1:26">
       <c r="A22" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F22" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="I22" s="10" t="s">
         <v>26</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K22" s="12">
+      <c r="K22" s="6">
         <v>2</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
@@ -3095,41 +3272,41 @@
     </row>
     <row r="23" customHeight="1" spans="1:26">
       <c r="A23" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F23" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I23" s="11" t="s">
         <v>119</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K23" s="6">
         <v>5</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
@@ -3147,41 +3324,41 @@
     </row>
     <row r="24" customHeight="1" spans="1:26">
       <c r="A24" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="D24" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F24" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>124</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24" s="6">
         <v>7</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
@@ -3199,37 +3376,37 @@
     </row>
     <row r="25" customHeight="1" spans="1:26">
       <c r="A25" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="6"/>
+      <c r="F25" s="3"/>
       <c r="G25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>127</v>
+        <v>119</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K25" s="6">
         <v>6</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
@@ -3247,41 +3424,41 @@
     </row>
     <row r="26" customHeight="1" spans="1:26">
       <c r="A26" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F26" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I26" s="11" t="s">
         <v>119</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K26" s="12">
+      <c r="K26" s="6">
         <v>6</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
@@ -3299,43 +3476,43 @@
     </row>
     <row r="27" customHeight="1" spans="1:26">
       <c r="A27" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="D27" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>60</v>
+        <v>119</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K27" s="12">
+      <c r="K27" s="6">
         <v>11</v>
       </c>
-      <c r="L27" s="12">
+      <c r="L27" s="6">
         <v>1100</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
@@ -3353,41 +3530,41 @@
     </row>
     <row r="28" customHeight="1" spans="1:26">
       <c r="A28" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="D28" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F28" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I28" s="11" t="s">
         <v>139</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>140</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K28" s="12">
+      <c r="K28" s="6">
         <v>9</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
@@ -3405,41 +3582,41 @@
     </row>
     <row r="29" customHeight="1" spans="1:26">
       <c r="A29" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="D29" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F29" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="I29" s="11" t="s">
         <v>144</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>145</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K29" s="12">
+      <c r="K29" s="6">
         <v>2</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
@@ -3455,45 +3632,45 @@
       <c r="Y29" s="9"/>
       <c r="Z29" s="9"/>
     </row>
-    <row r="30" customHeight="1" spans="1:26">
+    <row r="30" ht="122" customHeight="1" spans="1:26">
       <c r="A30" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F30" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K30" s="12">
+      <c r="K30" s="6">
         <v>9</v>
       </c>
-      <c r="L30" s="12">
+      <c r="L30" s="6">
         <v>6789</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
@@ -3509,43 +3686,43 @@
       <c r="Y30" s="9"/>
       <c r="Z30" s="9"/>
     </row>
-    <row r="31" customHeight="1" spans="1:26">
+    <row r="31" ht="100" customHeight="1" spans="1:26">
       <c r="A31" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F31" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>149</v>
+        <v>155</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K31" s="12">
+      <c r="K31" s="6">
         <v>9</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
@@ -3563,41 +3740,41 @@
     </row>
     <row r="32" customHeight="1" spans="1:26">
       <c r="A32" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F32" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>81</v>
+        <v>159</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K32" s="12">
+      <c r="K32" s="6">
         <v>2</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
@@ -3615,7 +3792,7 @@
     </row>
     <row r="33" customHeight="1" spans="1:26">
       <c r="A33" s="8"/>
-      <c r="B33" s="2"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="8"/>
@@ -30282,105 +30459,106 @@
   </sheetPr>
   <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="24.1047619047619" customWidth="1"/>
-    <col min="3" max="3" width="14.8190476190476" customWidth="1"/>
-    <col min="4" max="4" width="23.2095238095238" customWidth="1"/>
+    <col min="1" max="1" width="20.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="24.1071428571429" customWidth="1"/>
+    <col min="3" max="3" width="14.8214285714286" customWidth="1"/>
+    <col min="4" max="4" width="23.2053571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:26">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="H1" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="I1" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
+      <c r="J1" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
     </row>
     <row r="2" customHeight="1" spans="1:26">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="K2" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -30402,37 +30580,37 @@
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="K3" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -30451,40 +30629,40 @@
     </row>
     <row r="4" customHeight="1" spans="1:26">
       <c r="A4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="K4" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -30503,40 +30681,40 @@
     </row>
     <row r="5" customHeight="1" spans="1:26">
       <c r="A5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="K5" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -30555,40 +30733,40 @@
     </row>
     <row r="6" customHeight="1" spans="1:26">
       <c r="A6" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="K6" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -30607,40 +30785,40 @@
     </row>
     <row r="7" customHeight="1" spans="1:26">
       <c r="A7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="K7" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -30659,40 +30837,40 @@
     </row>
     <row r="8" customHeight="1" spans="1:26">
       <c r="A8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="K8" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -30711,40 +30889,40 @@
     </row>
     <row r="9" customHeight="1" spans="1:26">
       <c r="A9" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="K9" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -30763,40 +30941,40 @@
     </row>
     <row r="10" customHeight="1" spans="1:26">
       <c r="A10" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="K10" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -30818,37 +30996,37 @@
         <v>111</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>111</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="K11" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -30867,40 +31045,40 @@
     </row>
     <row r="12" customHeight="1" spans="1:26">
       <c r="A12" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="K12" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -30919,40 +31097,40 @@
     </row>
     <row r="13" customHeight="1" spans="1:26">
       <c r="A13" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="K13" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -30971,40 +31149,40 @@
     </row>
     <row r="14" customHeight="1" spans="1:26">
       <c r="A14" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="K14" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -31023,40 +31201,40 @@
     </row>
     <row r="15" customHeight="1" spans="1:26">
       <c r="A15" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="K15" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -31075,40 +31253,40 @@
     </row>
     <row r="16" customHeight="1" spans="1:26">
       <c r="A16" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="K16" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -31129,4 +31307,826 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="20.5357142857143" customWidth="1"/>
+    <col min="2" max="2" width="24.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="25.4375" customWidth="1"/>
+    <col min="4" max="4" width="32.5803571428571" customWidth="1"/>
+    <col min="5" max="5" width="36.3035714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="12.75" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" ht="36.75" spans="1:13">
+      <c r="A2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="6">
+        <v>3</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" ht="96.75" spans="1:13">
+      <c r="A3" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="6">
+        <v>8</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" ht="72.75" spans="1:13">
+      <c r="A4" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="6">
+        <v>6</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" ht="36.75" spans="1:13">
+      <c r="A5" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="6">
+        <v>10</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" ht="36.75" spans="1:13">
+      <c r="A6" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="6">
+        <v>12</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" ht="48.75" spans="1:13">
+      <c r="A7" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="6">
+        <v>6</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" ht="84.75" spans="1:13">
+      <c r="A8" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="6">
+        <v>15</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" ht="48.75" spans="1:13">
+      <c r="A9" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="6">
+        <v>10</v>
+      </c>
+      <c r="L9" s="6">
+        <v>800</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" ht="36.75" spans="1:13">
+      <c r="A10" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="6">
+        <v>12</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" ht="120.75" spans="1:13">
+      <c r="A11" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="6">
+        <v>6</v>
+      </c>
+      <c r="L11" s="6">
+        <v>2000</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" ht="36.75" spans="1:13">
+      <c r="A12" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="6">
+        <v>12</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="13" ht="36.75" spans="1:13">
+      <c r="A13" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="6">
+        <v>7</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="14" ht="48.75" spans="1:13">
+      <c r="A14" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="6">
+        <v>7</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="15" ht="36.75" spans="1:13">
+      <c r="A15" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="6">
+        <v>13</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="16" ht="60.75" spans="1:13">
+      <c r="A16" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="6">
+        <v>10</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" ht="48.75" spans="1:13">
+      <c r="A17" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="6">
+        <v>18</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" ht="48.75" spans="1:13">
+      <c r="A18" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="6">
+        <v>7</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8">
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="5:8">
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="5:8">
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="5:8">
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="5:8">
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="5:8">
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="5:8">
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="5:8">
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="5:8">
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="5:8">
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="5:8">
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="5:8">
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="5:8">
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="5:8">
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="5:8">
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="5:8">
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/test/resources/testdata/DataCMS.xlsx
+++ b/src/test/resources/testdata/DataCMS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17850" activeTab="7"/>
+    <workbookView windowHeight="23880"/>
   </bookViews>
   <sheets>
     <sheet name="sampleDetail" sheetId="1" r:id="rId1"/>
@@ -16,20 +16,7 @@
     <sheet name="urlServiceSheet" sheetId="7" r:id="rId7"/>
     <sheet name="dataServicePage" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -5466,12 +5453,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -5519,9 +5506,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5532,17 +5526,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5556,11 +5548,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5587,17 +5579,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5618,38 +5608,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5674,7 +5661,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5686,19 +5697,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5716,7 +5727,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5728,13 +5745,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5752,109 +5835,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5883,35 +5870,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5946,17 +5909,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5972,6 +5935,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -5980,178 +5952,193 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
@@ -6191,54 +6178,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
     <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -6433,7 +6420,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -6442,7 +6429,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -6665,8 +6652,8 @@
   </sheetPr>
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="15.75" customHeight="1"/>
@@ -6684,7 +6671,7 @@
     <col min="13" max="13" width="18.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" spans="1:14">
+    <row r="1" ht="12.75" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6724,11 +6711,11 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" s="16" customFormat="1" ht="13.5" spans="1:14">
+    <row r="2" s="16" customFormat="1" ht="12.75" spans="1:14">
       <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
@@ -6768,7 +6755,7 @@
       </c>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" s="16" customFormat="1" ht="15" spans="1:14">
+    <row r="3" s="16" customFormat="1" ht="13.95" spans="1:14">
       <c r="A3" s="17" t="s">
         <v>23</v>
       </c>
@@ -6850,7 +6837,7 @@
       </c>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" s="16" customFormat="1" ht="15" spans="1:14">
+    <row r="5" s="16" customFormat="1" ht="13.95" spans="1:14">
       <c r="A5" s="17" t="s">
         <v>37</v>
       </c>
@@ -7242,7 +7229,7 @@
       </c>
       <c r="N14" s="22"/>
     </row>
-    <row r="15" s="16" customFormat="1" ht="15" spans="1:14">
+    <row r="15" s="16" customFormat="1" ht="13.95" spans="1:14">
       <c r="A15" s="17" t="s">
         <v>83</v>
       </c>
@@ -7840,7 +7827,7 @@
       </c>
       <c r="N29" s="22"/>
     </row>
-    <row r="30" s="16" customFormat="1" ht="13.5" spans="1:14">
+    <row r="30" s="16" customFormat="1" ht="12.75" spans="1:14">
       <c r="A30" s="18" t="s">
         <v>151</v>
       </c>
@@ -7882,7 +7869,7 @@
       </c>
       <c r="N30" s="22"/>
     </row>
-    <row r="31" s="16" customFormat="1" ht="13.5" spans="1:14">
+    <row r="31" s="16" customFormat="1" ht="12.75" spans="1:14">
       <c r="A31" s="17" t="s">
         <v>157</v>
       </c>
@@ -8029,21 +8016,21 @@
       <c r="M1" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-    </row>
-    <row r="2" ht="13.5" spans="1:26">
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+    </row>
+    <row r="2" ht="12.75" spans="1:26">
       <c r="A2" s="5" t="s">
         <v>178</v>
       </c>
@@ -8321,7 +8308,7 @@
       <selection activeCell="N2" sqref="M2:N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="20.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="24.2857142857143" customWidth="1"/>
@@ -8330,7 +8317,7 @@
     <col min="5" max="5" width="36.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" spans="1:14">
+    <row r="1" ht="12.75" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>165</v>
       </c>
@@ -8370,11 +8357,11 @@
       <c r="M1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="9" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="2" ht="13.5" spans="1:14">
+    <row r="2" ht="12.75" spans="1:14">
       <c r="A2" s="5" t="s">
         <v>196</v>
       </c>
@@ -8405,7 +8392,7 @@
       <c r="J2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="8">
         <v>3</v>
       </c>
       <c r="L2" s="12">
@@ -8414,7 +8401,7 @@
       <c r="M2" s="5"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" ht="13.5" spans="1:14">
+    <row r="3" ht="12.75" spans="1:14">
       <c r="A3" s="5" t="s">
         <v>201</v>
       </c>
@@ -8445,7 +8432,7 @@
       <c r="J3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <v>8</v>
       </c>
       <c r="L3" s="12">
@@ -8454,7 +8441,7 @@
       <c r="M3" s="5"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" ht="13.5" spans="1:14">
+    <row r="4" ht="12.75" spans="1:14">
       <c r="A4" s="5" t="s">
         <v>203</v>
       </c>
@@ -8485,7 +8472,7 @@
       <c r="J4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="8">
         <v>6</v>
       </c>
       <c r="L4" s="12">
@@ -8494,7 +8481,7 @@
       <c r="M4" s="5"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" ht="13.5" spans="1:14">
+    <row r="5" ht="12.75" spans="1:14">
       <c r="A5" s="5" t="s">
         <v>206</v>
       </c>
@@ -8525,7 +8512,7 @@
       <c r="J5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <v>10</v>
       </c>
       <c r="L5" s="12">
@@ -8534,7 +8521,7 @@
       <c r="M5" s="5"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" ht="13.5" spans="1:14">
+    <row r="6" ht="12.75" spans="1:14">
       <c r="A6" s="5" t="s">
         <v>208</v>
       </c>
@@ -8565,7 +8552,7 @@
       <c r="J6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="8">
         <v>12</v>
       </c>
       <c r="L6" s="12">
@@ -8574,7 +8561,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" ht="13.5" spans="1:14">
+    <row r="7" ht="12.75" spans="1:14">
       <c r="A7" s="5" t="s">
         <v>211</v>
       </c>
@@ -8605,7 +8592,7 @@
       <c r="J7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="8">
         <v>6</v>
       </c>
       <c r="L7" s="12">
@@ -8614,7 +8601,7 @@
       <c r="M7" s="5"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" ht="13.5" spans="1:14">
+    <row r="8" ht="12.75" spans="1:14">
       <c r="A8" s="5" t="s">
         <v>213</v>
       </c>
@@ -8645,7 +8632,7 @@
       <c r="J8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="8">
         <v>15</v>
       </c>
       <c r="L8" s="12">
@@ -8654,7 +8641,7 @@
       <c r="M8" s="5"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" ht="13.5" spans="1:14">
+    <row r="9" ht="12.75" spans="1:14">
       <c r="A9" s="5" t="s">
         <v>215</v>
       </c>
@@ -8685,7 +8672,7 @@
       <c r="J9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="8">
         <v>10</v>
       </c>
       <c r="L9" s="12">
@@ -8694,7 +8681,7 @@
       <c r="M9" s="5"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" ht="13.5" spans="1:14">
+    <row r="10" ht="12.75" spans="1:14">
       <c r="A10" s="5" t="s">
         <v>218</v>
       </c>
@@ -8725,7 +8712,7 @@
       <c r="J10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="8">
         <v>12</v>
       </c>
       <c r="L10" s="12">
@@ -8734,7 +8721,7 @@
       <c r="M10" s="5"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" ht="13.5" spans="1:14">
+    <row r="11" ht="12.75" spans="1:14">
       <c r="A11" s="5" t="s">
         <v>222</v>
       </c>
@@ -8765,7 +8752,7 @@
       <c r="J11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="8">
         <v>6</v>
       </c>
       <c r="L11" s="12">
@@ -8774,7 +8761,7 @@
       <c r="M11" s="5"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" ht="13.5" spans="1:14">
+    <row r="12" ht="12.75" spans="1:14">
       <c r="A12" s="5" t="s">
         <v>224</v>
       </c>
@@ -8805,7 +8792,7 @@
       <c r="J12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="8">
         <v>12</v>
       </c>
       <c r="L12" s="12">
@@ -8814,7 +8801,7 @@
       <c r="M12" s="5"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" ht="13.5" spans="1:14">
+    <row r="13" ht="12.75" spans="1:14">
       <c r="A13" s="5" t="s">
         <v>226</v>
       </c>
@@ -8845,7 +8832,7 @@
       <c r="J13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="8">
         <v>7</v>
       </c>
       <c r="L13" s="12">
@@ -8854,7 +8841,7 @@
       <c r="M13" s="5"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" ht="13.5" spans="1:14">
+    <row r="14" ht="12.75" spans="1:14">
       <c r="A14" s="5" t="s">
         <v>228</v>
       </c>
@@ -8885,7 +8872,7 @@
       <c r="J14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="8">
         <v>7</v>
       </c>
       <c r="L14" s="12">
@@ -8894,7 +8881,7 @@
       <c r="M14" s="5"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" ht="13.5" spans="1:14">
+    <row r="15" ht="12.75" spans="1:14">
       <c r="A15" s="5" t="s">
         <v>231</v>
       </c>
@@ -8925,7 +8912,7 @@
       <c r="J15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="8">
         <v>13</v>
       </c>
       <c r="L15" s="12">
@@ -8934,7 +8921,7 @@
       <c r="M15" s="5"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" ht="13.5" spans="1:14">
+    <row r="16" ht="12.75" spans="1:14">
       <c r="A16" s="5" t="s">
         <v>233</v>
       </c>
@@ -8965,7 +8952,7 @@
       <c r="J16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="8">
         <v>10</v>
       </c>
       <c r="L16" s="12">
@@ -8974,7 +8961,7 @@
       <c r="M16" s="5"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" ht="13.5" spans="1:14">
+    <row r="17" ht="12.75" spans="1:14">
       <c r="A17" s="5" t="s">
         <v>236</v>
       </c>
@@ -9005,7 +8992,7 @@
       <c r="J17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="8">
         <v>18</v>
       </c>
       <c r="L17" s="12">
@@ -9014,7 +9001,7 @@
       <c r="M17" s="5"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" ht="13.5" spans="1:14">
+    <row r="18" ht="12.75" spans="1:14">
       <c r="A18" s="5" t="s">
         <v>239</v>
       </c>
@@ -9045,7 +9032,7 @@
       <c r="J18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="8">
         <v>7</v>
       </c>
       <c r="L18" s="12">
@@ -9165,15 +9152,15 @@
       <selection activeCell="A1" sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="36.2857142857143" customWidth="1"/>
     <col min="3" max="3" width="14.7142857142857" customWidth="1"/>
     <col min="13" max="13" width="24.5714285714286" customWidth="1"/>
-    <col min="14" max="14" width="12.1142857142857" customWidth="1"/>
+    <col min="14" max="14" width="12.1160714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" spans="1:14">
+    <row r="1" ht="12.75" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9213,11 +9200,11 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="13.5" spans="1:14">
+    <row r="2" ht="12.75" spans="1:14">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
@@ -9242,13 +9229,13 @@
       <c r="H2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="8">
         <v>2</v>
       </c>
       <c r="L2" s="5"/>
@@ -9257,7 +9244,7 @@
       </c>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" ht="13.5" spans="1:14">
+    <row r="3" ht="12.75" spans="1:14">
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
@@ -9282,13 +9269,13 @@
       <c r="H3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>20</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <v>2</v>
       </c>
       <c r="L3" s="5"/>
@@ -9312,7 +9299,7 @@
       <selection activeCell="A1" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
@@ -9346,7 +9333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:10">
+    <row r="2" ht="13.2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>247</v>
       </c>
@@ -9376,7 +9363,7 @@
       </c>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" ht="14.25" spans="1:10">
+    <row r="3" ht="13.2" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>255</v>
       </c>
@@ -9406,7 +9393,7 @@
       </c>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" ht="14.25" spans="1:10">
+    <row r="4" ht="13.2" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>262</v>
       </c>
@@ -9436,7 +9423,7 @@
       </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" ht="14.25" spans="1:9">
+    <row r="5" ht="13.2" spans="1:9">
       <c r="A5" s="3" t="s">
         <v>267</v>
       </c>
@@ -9465,7 +9452,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:9">
+    <row r="6" ht="13.2" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>274</v>
       </c>
@@ -9494,7 +9481,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:9">
+    <row r="7" ht="13.2" spans="1:9">
       <c r="A7" s="3" t="s">
         <v>281</v>
       </c>
@@ -9523,7 +9510,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:9">
+    <row r="8" ht="13.2" spans="1:9">
       <c r="A8" s="3" t="s">
         <v>288</v>
       </c>
@@ -9552,7 +9539,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:9">
+    <row r="9" ht="13.2" spans="1:9">
       <c r="A9" s="3" t="s">
         <v>295</v>
       </c>
@@ -9581,7 +9568,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:9">
+    <row r="10" ht="13.2" spans="1:9">
       <c r="A10" s="3" t="s">
         <v>302</v>
       </c>
@@ -9610,7 +9597,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:9">
+    <row r="11" ht="13.2" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>308</v>
       </c>
@@ -9639,7 +9626,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:9">
+    <row r="12" ht="13.2" spans="1:9">
       <c r="A12" s="3" t="s">
         <v>315</v>
       </c>
@@ -9668,7 +9655,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:9">
+    <row r="13" ht="13.2" spans="1:9">
       <c r="A13" s="3" t="s">
         <v>322</v>
       </c>
@@ -9697,7 +9684,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:9">
+    <row r="14" ht="13.2" spans="1:9">
       <c r="A14" s="3" t="s">
         <v>329</v>
       </c>
@@ -9726,7 +9713,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:9">
+    <row r="15" ht="13.2" spans="1:9">
       <c r="A15" s="3" t="s">
         <v>335</v>
       </c>
@@ -9755,7 +9742,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:9">
+    <row r="16" ht="13.2" spans="1:9">
       <c r="A16" s="3" t="s">
         <v>341</v>
       </c>
@@ -9784,7 +9771,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:9">
+    <row r="17" ht="13.2" spans="1:9">
       <c r="A17" s="3" t="s">
         <v>347</v>
       </c>
@@ -9813,7 +9800,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:9">
+    <row r="18" ht="13.2" spans="1:9">
       <c r="A18" s="3" t="s">
         <v>354</v>
       </c>
@@ -9842,7 +9829,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:9">
+    <row r="19" ht="13.2" spans="1:9">
       <c r="A19" s="3" t="s">
         <v>359</v>
       </c>
@@ -9871,7 +9858,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:9">
+    <row r="20" ht="13.2" spans="1:9">
       <c r="A20" s="3" t="s">
         <v>366</v>
       </c>
@@ -9900,7 +9887,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="1:9">
+    <row r="21" ht="13.2" spans="1:9">
       <c r="A21" s="3" t="s">
         <v>372</v>
       </c>
@@ -9929,7 +9916,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="1:9">
+    <row r="22" ht="13.2" spans="1:9">
       <c r="A22" s="3" t="s">
         <v>378</v>
       </c>
@@ -9958,7 +9945,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:9">
+    <row r="23" ht="13.2" spans="1:9">
       <c r="A23" s="3" t="s">
         <v>383</v>
       </c>
@@ -9987,7 +9974,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="24" ht="14.25" spans="1:9">
+    <row r="24" ht="13.2" spans="1:9">
       <c r="A24" s="3" t="s">
         <v>388</v>
       </c>
@@ -10016,7 +10003,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="1:9">
+    <row r="25" ht="13.2" spans="1:9">
       <c r="A25" s="3" t="s">
         <v>394</v>
       </c>
@@ -10045,7 +10032,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="26" ht="14.25" spans="1:9">
+    <row r="26" ht="13.2" spans="1:9">
       <c r="A26" s="3" t="s">
         <v>399</v>
       </c>
@@ -10074,7 +10061,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="27" ht="14.25" spans="1:9">
+    <row r="27" ht="13.2" spans="1:9">
       <c r="A27" s="3" t="s">
         <v>405</v>
       </c>
@@ -10103,7 +10090,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="28" ht="14.25" spans="1:9">
+    <row r="28" ht="13.2" spans="1:9">
       <c r="A28" s="3" t="s">
         <v>411</v>
       </c>
@@ -10132,7 +10119,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="29" ht="14.25" spans="1:9">
+    <row r="29" ht="13.2" spans="1:9">
       <c r="A29" s="3" t="s">
         <v>417</v>
       </c>
@@ -10161,7 +10148,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="30" ht="14.25" spans="1:9">
+    <row r="30" ht="13.2" spans="1:9">
       <c r="A30" s="3" t="s">
         <v>422</v>
       </c>
@@ -10190,7 +10177,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="31" ht="14.25" spans="1:9">
+    <row r="31" ht="13.2" spans="1:9">
       <c r="A31" s="3" t="s">
         <v>429</v>
       </c>
@@ -10219,7 +10206,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="32" ht="14.25" spans="1:9">
+    <row r="32" ht="13.2" spans="1:9">
       <c r="A32" s="3" t="s">
         <v>435</v>
       </c>
@@ -10248,7 +10235,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="33" ht="14.25" spans="1:9">
+    <row r="33" ht="13.2" spans="1:9">
       <c r="A33" s="3" t="s">
         <v>440</v>
       </c>
@@ -10277,7 +10264,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="34" ht="14.25" spans="1:9">
+    <row r="34" ht="13.2" spans="1:9">
       <c r="A34" s="3" t="s">
         <v>446</v>
       </c>
@@ -10306,7 +10293,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="35" ht="14.25" spans="1:9">
+    <row r="35" ht="13.2" spans="1:9">
       <c r="A35" s="3" t="s">
         <v>452</v>
       </c>
@@ -10335,7 +10322,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="36" ht="14.25" spans="1:9">
+    <row r="36" ht="13.2" spans="1:9">
       <c r="A36" s="3" t="s">
         <v>457</v>
       </c>
@@ -10364,7 +10351,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="37" ht="14.25" spans="1:9">
+    <row r="37" ht="13.2" spans="1:9">
       <c r="A37" s="3" t="s">
         <v>464</v>
       </c>
@@ -10393,7 +10380,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="38" ht="14.25" spans="1:9">
+    <row r="38" ht="13.2" spans="1:9">
       <c r="A38" s="3" t="s">
         <v>469</v>
       </c>
@@ -10422,7 +10409,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="39" ht="14.25" spans="1:9">
+    <row r="39" ht="13.2" spans="1:9">
       <c r="A39" s="3" t="s">
         <v>475</v>
       </c>
@@ -10451,7 +10438,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="40" ht="14.25" spans="1:9">
+    <row r="40" ht="13.2" spans="1:9">
       <c r="A40" s="3" t="s">
         <v>481</v>
       </c>
@@ -10480,7 +10467,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="41" ht="14.25" spans="1:9">
+    <row r="41" ht="13.2" spans="1:9">
       <c r="A41" s="3" t="s">
         <v>486</v>
       </c>
@@ -10509,7 +10496,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="42" ht="14.25" spans="1:9">
+    <row r="42" ht="13.2" spans="1:9">
       <c r="A42" s="3" t="s">
         <v>492</v>
       </c>
@@ -10538,7 +10525,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="43" ht="14.25" spans="1:9">
+    <row r="43" ht="13.2" spans="1:9">
       <c r="A43" s="3" t="s">
         <v>498</v>
       </c>
@@ -10567,7 +10554,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="44" ht="14.25" spans="1:9">
+    <row r="44" ht="13.2" spans="1:9">
       <c r="A44" s="3" t="s">
         <v>504</v>
       </c>
@@ -10596,7 +10583,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="45" ht="14.25" spans="1:9">
+    <row r="45" ht="13.2" spans="1:9">
       <c r="A45" s="3" t="s">
         <v>509</v>
       </c>
@@ -10625,7 +10612,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="46" ht="14.25" spans="1:9">
+    <row r="46" ht="13.2" spans="1:9">
       <c r="A46" s="3" t="s">
         <v>516</v>
       </c>
@@ -10654,7 +10641,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="47" ht="14.25" spans="1:9">
+    <row r="47" ht="13.2" spans="1:9">
       <c r="A47" s="3" t="s">
         <v>429</v>
       </c>
@@ -10683,7 +10670,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="48" ht="14.25" spans="1:9">
+    <row r="48" ht="13.2" spans="1:9">
       <c r="A48" s="3" t="s">
         <v>527</v>
       </c>
@@ -10712,7 +10699,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="49" ht="14.25" spans="1:9">
+    <row r="49" ht="13.2" spans="1:9">
       <c r="A49" s="3" t="s">
         <v>533</v>
       </c>
@@ -10741,7 +10728,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="50" ht="14.25" spans="1:9">
+    <row r="50" ht="13.2" spans="1:9">
       <c r="A50" s="3" t="s">
         <v>539</v>
       </c>
@@ -10770,7 +10757,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="51" ht="14.25" spans="1:9">
+    <row r="51" ht="13.2" spans="1:9">
       <c r="A51" s="3" t="s">
         <v>498</v>
       </c>
@@ -10799,7 +10786,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="52" ht="14.25" spans="1:9">
+    <row r="52" ht="13.2" spans="1:9">
       <c r="A52" s="3" t="s">
         <v>550</v>
       </c>
@@ -10828,7 +10815,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="53" ht="14.25" spans="1:9">
+    <row r="53" ht="13.2" spans="1:9">
       <c r="A53" s="3" t="s">
         <v>440</v>
       </c>
@@ -10857,7 +10844,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="54" ht="14.25" spans="1:9">
+    <row r="54" ht="13.2" spans="1:9">
       <c r="A54" s="3" t="s">
         <v>559</v>
       </c>
@@ -10886,7 +10873,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="55" ht="14.25" spans="1:9">
+    <row r="55" ht="13.2" spans="1:9">
       <c r="A55" s="3" t="s">
         <v>564</v>
       </c>
@@ -10915,7 +10902,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="56" ht="14.25" spans="1:9">
+    <row r="56" ht="13.2" spans="1:9">
       <c r="A56" s="3" t="s">
         <v>569</v>
       </c>
@@ -10944,7 +10931,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="57" ht="14.25" spans="1:9">
+    <row r="57" ht="13.2" spans="1:9">
       <c r="A57" s="3" t="s">
         <v>464</v>
       </c>
@@ -10973,7 +10960,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="58" ht="14.25" spans="1:9">
+    <row r="58" ht="13.2" spans="1:9">
       <c r="A58" s="3" t="s">
         <v>579</v>
       </c>
@@ -11002,7 +10989,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="59" ht="14.25" spans="1:9">
+    <row r="59" ht="13.2" spans="1:9">
       <c r="A59" s="3" t="s">
         <v>583</v>
       </c>
@@ -11031,7 +11018,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="60" ht="14.25" spans="1:9">
+    <row r="60" ht="13.2" spans="1:9">
       <c r="A60" s="3" t="s">
         <v>588</v>
       </c>
@@ -11060,7 +11047,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="61" ht="14.25" spans="1:9">
+    <row r="61" ht="13.2" spans="1:9">
       <c r="A61" s="3" t="s">
         <v>594</v>
       </c>
@@ -11089,7 +11076,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="62" ht="14.25" spans="1:9">
+    <row r="62" ht="13.2" spans="1:9">
       <c r="A62" s="3" t="s">
         <v>599</v>
       </c>
@@ -11118,7 +11105,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="63" ht="14.25" spans="1:9">
+    <row r="63" ht="13.2" spans="1:9">
       <c r="A63" s="3" t="s">
         <v>604</v>
       </c>
@@ -11147,7 +11134,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="64" ht="14.25" spans="1:9">
+    <row r="64" ht="13.2" spans="1:9">
       <c r="A64" s="3" t="s">
         <v>609</v>
       </c>
@@ -11176,7 +11163,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="65" ht="14.25" spans="1:9">
+    <row r="65" ht="13.2" spans="1:9">
       <c r="A65" s="3" t="s">
         <v>615</v>
       </c>
@@ -11205,7 +11192,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="66" ht="14.25" spans="1:9">
+    <row r="66" ht="13.2" spans="1:9">
       <c r="A66" s="3" t="s">
         <v>620</v>
       </c>
@@ -11234,7 +11221,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="67" ht="14.25" spans="1:9">
+    <row r="67" ht="13.2" spans="1:9">
       <c r="A67" s="3" t="s">
         <v>626</v>
       </c>
@@ -11263,7 +11250,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="68" ht="14.25" spans="1:9">
+    <row r="68" ht="13.2" spans="1:9">
       <c r="A68" s="3" t="s">
         <v>631</v>
       </c>
@@ -11292,7 +11279,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="69" ht="14.25" spans="1:9">
+    <row r="69" ht="13.2" spans="1:9">
       <c r="A69" s="3" t="s">
         <v>636</v>
       </c>
@@ -11321,7 +11308,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="70" ht="14.25" spans="1:9">
+    <row r="70" ht="13.2" spans="1:9">
       <c r="A70" s="3" t="s">
         <v>642</v>
       </c>
@@ -11350,7 +11337,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="71" ht="14.25" spans="1:9">
+    <row r="71" ht="13.2" spans="1:9">
       <c r="A71" s="3" t="s">
         <v>620</v>
       </c>
@@ -11379,7 +11366,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="72" ht="14.25" spans="1:9">
+    <row r="72" ht="13.2" spans="1:9">
       <c r="A72" s="3" t="s">
         <v>651</v>
       </c>
@@ -11408,7 +11395,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="73" ht="14.25" spans="1:9">
+    <row r="73" ht="13.2" spans="1:9">
       <c r="A73" s="3" t="s">
         <v>658</v>
       </c>
@@ -11437,7 +11424,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="74" ht="14.25" spans="1:9">
+    <row r="74" ht="13.2" spans="1:9">
       <c r="A74" s="3" t="s">
         <v>664</v>
       </c>
@@ -11466,7 +11453,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="75" ht="14.25" spans="1:9">
+    <row r="75" ht="13.2" spans="1:9">
       <c r="A75" s="3" t="s">
         <v>669</v>
       </c>
@@ -11495,7 +11482,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="76" ht="14.25" spans="1:9">
+    <row r="76" ht="13.2" spans="1:9">
       <c r="A76" s="3" t="s">
         <v>674</v>
       </c>
@@ -11524,7 +11511,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="77" ht="14.25" spans="1:9">
+    <row r="77" ht="13.2" spans="1:9">
       <c r="A77" s="3" t="s">
         <v>679</v>
       </c>
@@ -11553,7 +11540,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="78" ht="14.25" spans="1:9">
+    <row r="78" ht="13.2" spans="1:9">
       <c r="A78" s="3" t="s">
         <v>684</v>
       </c>
@@ -11582,7 +11569,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="79" ht="14.25" spans="1:9">
+    <row r="79" ht="13.2" spans="1:9">
       <c r="A79" s="3" t="s">
         <v>690</v>
       </c>
@@ -11611,7 +11598,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="80" ht="14.25" spans="1:9">
+    <row r="80" ht="13.2" spans="1:9">
       <c r="A80" s="3" t="s">
         <v>695</v>
       </c>
@@ -11640,7 +11627,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="81" ht="14.25" spans="1:9">
+    <row r="81" ht="13.2" spans="1:9">
       <c r="A81" s="3" t="s">
         <v>700</v>
       </c>
@@ -11669,7 +11656,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="82" ht="14.25" spans="1:9">
+    <row r="82" ht="13.2" spans="1:9">
       <c r="A82" s="3" t="s">
         <v>642</v>
       </c>
@@ -11698,7 +11685,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="83" ht="14.25" spans="1:9">
+    <row r="83" ht="13.2" spans="1:9">
       <c r="A83" s="3" t="s">
         <v>710</v>
       </c>
@@ -11727,7 +11714,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="84" ht="14.25" spans="1:9">
+    <row r="84" ht="13.2" spans="1:9">
       <c r="A84" s="3" t="s">
         <v>716</v>
       </c>
@@ -11756,7 +11743,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="85" ht="14.25" spans="1:9">
+    <row r="85" ht="13.2" spans="1:9">
       <c r="A85" s="3" t="s">
         <v>308</v>
       </c>
@@ -11785,7 +11772,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="86" ht="14.25" spans="1:9">
+    <row r="86" ht="13.2" spans="1:9">
       <c r="A86" s="3" t="s">
         <v>725</v>
       </c>
@@ -11814,7 +11801,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="87" ht="14.25" spans="1:9">
+    <row r="87" ht="13.2" spans="1:9">
       <c r="A87" s="3" t="s">
         <v>730</v>
       </c>
@@ -11843,7 +11830,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="88" ht="14.25" spans="1:9">
+    <row r="88" ht="13.2" spans="1:9">
       <c r="A88" s="3" t="s">
         <v>736</v>
       </c>
@@ -11872,7 +11859,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="89" ht="14.25" spans="1:9">
+    <row r="89" ht="13.2" spans="1:9">
       <c r="A89" s="3" t="s">
         <v>741</v>
       </c>
@@ -11901,7 +11888,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="90" ht="14.25" spans="1:9">
+    <row r="90" ht="13.2" spans="1:9">
       <c r="A90" s="3" t="s">
         <v>746</v>
       </c>
@@ -11930,7 +11917,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="91" ht="14.25" spans="1:9">
+    <row r="91" ht="13.2" spans="1:9">
       <c r="A91" s="3" t="s">
         <v>752</v>
       </c>
@@ -11959,7 +11946,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="92" ht="14.25" spans="1:9">
+    <row r="92" ht="13.2" spans="1:9">
       <c r="A92" s="3" t="s">
         <v>757</v>
       </c>
@@ -11988,7 +11975,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="93" ht="14.25" spans="1:9">
+    <row r="93" ht="13.2" spans="1:9">
       <c r="A93" s="3" t="s">
         <v>464</v>
       </c>
@@ -12017,7 +12004,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="94" ht="14.25" spans="1:9">
+    <row r="94" ht="13.2" spans="1:9">
       <c r="A94" s="3" t="s">
         <v>767</v>
       </c>
@@ -12046,7 +12033,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="95" ht="14.25" spans="1:9">
+    <row r="95" ht="13.2" spans="1:9">
       <c r="A95" s="3" t="s">
         <v>399</v>
       </c>
@@ -12075,7 +12062,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="96" ht="14.25" spans="1:9">
+    <row r="96" ht="13.2" spans="1:9">
       <c r="A96" s="3" t="s">
         <v>775</v>
       </c>
@@ -12104,7 +12091,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="97" ht="14.25" spans="1:9">
+    <row r="97" ht="13.2" spans="1:9">
       <c r="A97" s="3" t="s">
         <v>642</v>
       </c>
@@ -12133,7 +12120,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="98" ht="14.25" spans="1:9">
+    <row r="98" ht="13.2" spans="1:9">
       <c r="A98" s="3" t="s">
         <v>784</v>
       </c>
@@ -12162,7 +12149,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="99" ht="14.25" spans="1:9">
+    <row r="99" ht="13.2" spans="1:9">
       <c r="A99" s="3" t="s">
         <v>527</v>
       </c>
@@ -12191,7 +12178,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="100" ht="14.25" spans="1:9">
+    <row r="100" ht="13.2" spans="1:9">
       <c r="A100" s="3" t="s">
         <v>794</v>
       </c>
@@ -12220,7 +12207,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="101" ht="14.25" spans="1:9">
+    <row r="101" ht="13.2" spans="1:9">
       <c r="A101" s="3" t="s">
         <v>799</v>
       </c>
@@ -12249,7 +12236,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="102" ht="14.25" spans="1:9">
+    <row r="102" ht="13.2" spans="1:9">
       <c r="A102" s="3" t="s">
         <v>805</v>
       </c>
@@ -12278,7 +12265,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="103" ht="14.25" spans="1:9">
+    <row r="103" ht="13.2" spans="1:9">
       <c r="A103" s="3" t="s">
         <v>811</v>
       </c>
@@ -12307,7 +12294,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="104" ht="14.25" spans="1:9">
+    <row r="104" ht="13.2" spans="1:9">
       <c r="A104" s="3" t="s">
         <v>815</v>
       </c>
@@ -12336,7 +12323,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="105" ht="14.25" spans="1:9">
+    <row r="105" ht="13.2" spans="1:9">
       <c r="A105" s="3" t="s">
         <v>820</v>
       </c>
@@ -12365,7 +12352,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="106" ht="14.25" spans="1:9">
+    <row r="106" ht="13.2" spans="1:9">
       <c r="A106" s="3" t="s">
         <v>527</v>
       </c>
@@ -12394,7 +12381,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="107" ht="14.25" spans="1:9">
+    <row r="107" ht="13.2" spans="1:9">
       <c r="A107" s="3" t="s">
         <v>736</v>
       </c>
@@ -12423,7 +12410,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="108" ht="14.25" spans="1:9">
+    <row r="108" ht="13.2" spans="1:9">
       <c r="A108" s="3" t="s">
         <v>834</v>
       </c>
@@ -12452,7 +12439,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="109" ht="14.25" spans="1:9">
+    <row r="109" ht="13.2" spans="1:9">
       <c r="A109" s="3" t="s">
         <v>679</v>
       </c>
@@ -12481,7 +12468,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="110" ht="14.25" spans="1:9">
+    <row r="110" ht="13.2" spans="1:9">
       <c r="A110" s="3" t="s">
         <v>844</v>
       </c>
@@ -12510,7 +12497,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="111" ht="14.25" spans="1:9">
+    <row r="111" ht="13.2" spans="1:9">
       <c r="A111" s="3" t="s">
         <v>775</v>
       </c>
@@ -12539,7 +12526,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="112" ht="14.25" spans="1:9">
+    <row r="112" ht="13.2" spans="1:9">
       <c r="A112" s="3" t="s">
         <v>440</v>
       </c>
@@ -12568,7 +12555,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="113" ht="14.25" spans="1:9">
+    <row r="113" ht="13.2" spans="1:9">
       <c r="A113" s="3" t="s">
         <v>417</v>
       </c>
@@ -12597,7 +12584,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="114" ht="14.25" spans="1:9">
+    <row r="114" ht="13.2" spans="1:9">
       <c r="A114" s="3" t="s">
         <v>861</v>
       </c>
@@ -12626,7 +12613,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="115" ht="14.25" spans="1:9">
+    <row r="115" ht="13.2" spans="1:9">
       <c r="A115" s="3" t="s">
         <v>388</v>
       </c>
@@ -12655,7 +12642,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="116" ht="14.25" spans="1:9">
+    <row r="116" ht="13.2" spans="1:9">
       <c r="A116" s="3" t="s">
         <v>736</v>
       </c>
@@ -12684,7 +12671,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="117" ht="14.25" spans="1:9">
+    <row r="117" ht="13.2" spans="1:9">
       <c r="A117" s="3" t="s">
         <v>876</v>
       </c>
@@ -12713,7 +12700,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="118" ht="14.25" spans="1:9">
+    <row r="118" ht="13.2" spans="1:9">
       <c r="A118" s="3" t="s">
         <v>498</v>
       </c>
@@ -12742,7 +12729,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="119" ht="14.25" spans="1:9">
+    <row r="119" ht="13.2" spans="1:9">
       <c r="A119" s="3" t="s">
         <v>609</v>
       </c>
@@ -12771,7 +12758,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="120" ht="14.25" spans="1:9">
+    <row r="120" ht="13.2" spans="1:9">
       <c r="A120" s="3" t="s">
         <v>890</v>
       </c>
@@ -12800,7 +12787,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="121" ht="14.25" spans="1:9">
+    <row r="121" ht="13.2" spans="1:9">
       <c r="A121" s="3" t="s">
         <v>464</v>
       </c>
@@ -12829,7 +12816,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="122" ht="14.25" spans="1:9">
+    <row r="122" ht="13.2" spans="1:9">
       <c r="A122" s="3" t="s">
         <v>583</v>
       </c>
@@ -12858,7 +12845,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="123" ht="14.25" spans="1:9">
+    <row r="123" ht="13.2" spans="1:9">
       <c r="A123" s="3" t="s">
         <v>903</v>
       </c>
@@ -12887,7 +12874,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="124" ht="14.25" spans="1:9">
+    <row r="124" ht="13.2" spans="1:9">
       <c r="A124" s="3" t="s">
         <v>908</v>
       </c>
@@ -12916,7 +12903,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="125" ht="14.25" spans="1:9">
+    <row r="125" ht="13.2" spans="1:9">
       <c r="A125" s="3" t="s">
         <v>422</v>
       </c>
@@ -12945,7 +12932,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="126" ht="14.25" spans="1:9">
+    <row r="126" ht="13.2" spans="1:9">
       <c r="A126" s="3" t="s">
         <v>918</v>
       </c>
@@ -12974,7 +12961,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="127" ht="14.25" spans="1:9">
+    <row r="127" ht="13.2" spans="1:9">
       <c r="A127" s="3" t="s">
         <v>923</v>
       </c>
@@ -13003,7 +12990,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="128" ht="14.25" spans="1:9">
+    <row r="128" ht="13.2" spans="1:9">
       <c r="A128" s="3" t="s">
         <v>928</v>
       </c>
@@ -13032,7 +13019,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="129" ht="14.25" spans="1:9">
+    <row r="129" ht="13.2" spans="1:9">
       <c r="A129" s="3" t="s">
         <v>933</v>
       </c>
@@ -13061,7 +13048,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="130" ht="14.25" spans="1:9">
+    <row r="130" ht="13.2" spans="1:9">
       <c r="A130" s="3" t="s">
         <v>939</v>
       </c>
@@ -13090,7 +13077,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="131" ht="14.25" spans="1:9">
+    <row r="131" ht="13.2" spans="1:9">
       <c r="A131" s="3" t="s">
         <v>308</v>
       </c>
@@ -13119,7 +13106,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="132" ht="14.25" spans="1:9">
+    <row r="132" ht="13.2" spans="1:9">
       <c r="A132" s="3" t="s">
         <v>903</v>
       </c>
@@ -13148,7 +13135,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="133" ht="14.25" spans="1:9">
+    <row r="133" ht="13.2" spans="1:9">
       <c r="A133" s="3" t="s">
         <v>422</v>
       </c>
@@ -13177,7 +13164,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="134" ht="14.25" spans="1:9">
+    <row r="134" ht="13.2" spans="1:9">
       <c r="A134" s="3" t="s">
         <v>679</v>
       </c>
@@ -13206,7 +13193,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="135" ht="14.25" spans="1:9">
+    <row r="135" ht="13.2" spans="1:9">
       <c r="A135" s="3" t="s">
         <v>962</v>
       </c>
@@ -13235,7 +13222,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="136" ht="14.25" spans="1:9">
+    <row r="136" ht="13.2" spans="1:9">
       <c r="A136" s="3" t="s">
         <v>440</v>
       </c>
@@ -13264,7 +13251,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="137" ht="14.25" spans="1:9">
+    <row r="137" ht="13.2" spans="1:9">
       <c r="A137" s="3" t="s">
         <v>974</v>
       </c>
@@ -13293,7 +13280,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="138" ht="14.25" spans="1:9">
+    <row r="138" ht="13.2" spans="1:9">
       <c r="A138" s="3" t="s">
         <v>980</v>
       </c>
@@ -13322,7 +13309,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="139" ht="14.25" spans="1:9">
+    <row r="139" ht="13.2" spans="1:9">
       <c r="A139" s="3" t="s">
         <v>985</v>
       </c>
@@ -13351,7 +13338,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="140" ht="14.25" spans="1:9">
+    <row r="140" ht="13.2" spans="1:9">
       <c r="A140" s="3" t="s">
         <v>990</v>
       </c>
@@ -13380,7 +13367,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="141" ht="14.25" spans="1:9">
+    <row r="141" ht="13.2" spans="1:9">
       <c r="A141" s="3" t="s">
         <v>615</v>
       </c>
@@ -13409,7 +13396,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="142" ht="14.25" spans="1:9">
+    <row r="142" ht="13.2" spans="1:9">
       <c r="A142" s="3" t="s">
         <v>695</v>
       </c>
@@ -13438,7 +13425,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="143" ht="14.25" spans="1:9">
+    <row r="143" ht="13.2" spans="1:9">
       <c r="A143" s="3" t="s">
         <v>464</v>
       </c>
@@ -13467,7 +13454,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="144" ht="14.25" spans="1:9">
+    <row r="144" ht="13.2" spans="1:9">
       <c r="A144" s="3" t="s">
         <v>1004</v>
       </c>
@@ -13496,7 +13483,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="145" ht="14.25" spans="1:9">
+    <row r="145" ht="13.2" spans="1:9">
       <c r="A145" s="3" t="s">
         <v>1008</v>
       </c>
@@ -13525,7 +13512,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="146" ht="14.25" spans="1:9">
+    <row r="146" ht="13.2" spans="1:9">
       <c r="A146" s="3" t="s">
         <v>784</v>
       </c>
@@ -13554,7 +13541,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="147" ht="14.25" spans="1:9">
+    <row r="147" ht="13.2" spans="1:9">
       <c r="A147" s="3" t="s">
         <v>1017</v>
       </c>
@@ -13583,7 +13570,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="148" ht="14.25" spans="1:9">
+    <row r="148" ht="13.2" spans="1:9">
       <c r="A148" s="3" t="s">
         <v>1024</v>
       </c>
@@ -13612,7 +13599,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="149" ht="14.25" spans="1:9">
+    <row r="149" ht="13.2" spans="1:9">
       <c r="A149" s="3" t="s">
         <v>1029</v>
       </c>
@@ -13641,7 +13628,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="150" ht="14.25" spans="1:9">
+    <row r="150" ht="13.2" spans="1:9">
       <c r="A150" s="3" t="s">
         <v>980</v>
       </c>
@@ -13670,7 +13657,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="151" ht="14.25" spans="1:9">
+    <row r="151" ht="13.2" spans="1:9">
       <c r="A151" s="3" t="s">
         <v>716</v>
       </c>
@@ -13699,7 +13686,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="152" ht="14.25" spans="1:9">
+    <row r="152" ht="13.2" spans="1:9">
       <c r="A152" s="3" t="s">
         <v>1017</v>
       </c>
@@ -13728,7 +13715,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="153" ht="14.25" spans="1:9">
+    <row r="153" ht="13.2" spans="1:9">
       <c r="A153" s="3" t="s">
         <v>1047</v>
       </c>
@@ -13757,7 +13744,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="154" ht="14.25" spans="1:9">
+    <row r="154" ht="13.2" spans="1:9">
       <c r="A154" s="3" t="s">
         <v>908</v>
       </c>
@@ -13786,7 +13773,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="155" ht="14.25" spans="1:9">
+    <row r="155" ht="13.2" spans="1:9">
       <c r="A155" s="3" t="s">
         <v>1057</v>
       </c>
@@ -13815,7 +13802,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="156" ht="14.25" spans="1:9">
+    <row r="156" ht="13.2" spans="1:9">
       <c r="A156" s="3" t="s">
         <v>1062</v>
       </c>
@@ -13844,7 +13831,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="157" ht="14.25" spans="1:9">
+    <row r="157" ht="13.2" spans="1:9">
       <c r="A157" s="3" t="s">
         <v>642</v>
       </c>
@@ -13873,7 +13860,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="158" ht="14.25" spans="1:9">
+    <row r="158" ht="13.2" spans="1:9">
       <c r="A158" s="3" t="s">
         <v>615</v>
       </c>
@@ -13902,7 +13889,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="159" ht="14.25" spans="1:9">
+    <row r="159" ht="13.2" spans="1:9">
       <c r="A159" s="3" t="s">
         <v>1075</v>
       </c>
@@ -13931,7 +13918,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="160" ht="14.25" spans="1:9">
+    <row r="160" ht="13.2" spans="1:9">
       <c r="A160" s="3" t="s">
         <v>1080</v>
       </c>
@@ -13960,7 +13947,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="161" ht="14.25" spans="1:9">
+    <row r="161" ht="13.2" spans="1:9">
       <c r="A161" s="3" t="s">
         <v>626</v>
       </c>
@@ -13989,7 +13976,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="162" ht="14.25" spans="1:9">
+    <row r="162" ht="13.2" spans="1:9">
       <c r="A162" s="3" t="s">
         <v>579</v>
       </c>
@@ -14018,7 +14005,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="163" ht="14.25" spans="1:9">
+    <row r="163" ht="13.2" spans="1:9">
       <c r="A163" s="3" t="s">
         <v>1096</v>
       </c>
@@ -14047,7 +14034,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="164" ht="14.25" spans="1:9">
+    <row r="164" ht="13.2" spans="1:9">
       <c r="A164" s="3" t="s">
         <v>1101</v>
       </c>
@@ -14076,7 +14063,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="165" ht="14.25" spans="1:9">
+    <row r="165" ht="13.2" spans="1:9">
       <c r="A165" s="3" t="s">
         <v>890</v>
       </c>
@@ -14105,7 +14092,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="166" ht="14.25" spans="1:9">
+    <row r="166" ht="13.2" spans="1:9">
       <c r="A166" s="3" t="s">
         <v>1110</v>
       </c>
@@ -14134,7 +14121,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="167" ht="14.25" spans="1:9">
+    <row r="167" ht="13.2" spans="1:9">
       <c r="A167" s="3" t="s">
         <v>1114</v>
       </c>
@@ -14163,7 +14150,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="168" ht="14.25" spans="1:9">
+    <row r="168" ht="13.2" spans="1:9">
       <c r="A168" s="3" t="s">
         <v>1118</v>
       </c>
@@ -14192,7 +14179,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="169" ht="14.25" spans="1:9">
+    <row r="169" ht="13.2" spans="1:9">
       <c r="A169" s="3" t="s">
         <v>1123</v>
       </c>
@@ -14221,7 +14208,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="170" ht="14.25" spans="1:9">
+    <row r="170" ht="13.2" spans="1:9">
       <c r="A170" s="3" t="s">
         <v>1127</v>
       </c>
@@ -14250,7 +14237,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="171" ht="14.25" spans="1:9">
+    <row r="171" ht="13.2" spans="1:9">
       <c r="A171" s="3" t="s">
         <v>1132</v>
       </c>
@@ -14279,7 +14266,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="172" ht="14.25" spans="1:9">
+    <row r="172" ht="13.2" spans="1:9">
       <c r="A172" s="3" t="s">
         <v>1137</v>
       </c>
@@ -14308,7 +14295,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="173" ht="14.25" spans="1:9">
+    <row r="173" ht="13.2" spans="1:9">
       <c r="A173" s="3" t="s">
         <v>1142</v>
       </c>
@@ -14337,7 +14324,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="174" ht="14.25" spans="1:9">
+    <row r="174" ht="13.2" spans="1:9">
       <c r="A174" s="3" t="s">
         <v>642</v>
       </c>
@@ -14366,7 +14353,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="175" ht="14.25" spans="1:9">
+    <row r="175" ht="13.2" spans="1:9">
       <c r="A175" s="3" t="s">
         <v>1152</v>
       </c>
@@ -14395,7 +14382,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="176" ht="14.25" spans="1:9">
+    <row r="176" ht="13.2" spans="1:9">
       <c r="A176" s="3" t="s">
         <v>1157</v>
       </c>
@@ -14424,7 +14411,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="177" ht="14.25" spans="1:9">
+    <row r="177" ht="13.2" spans="1:9">
       <c r="A177" s="3" t="s">
         <v>1161</v>
       </c>
@@ -14453,7 +14440,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="178" ht="14.25" spans="1:9">
+    <row r="178" ht="13.2" spans="1:9">
       <c r="A178" s="3" t="s">
         <v>1166</v>
       </c>
@@ -14482,7 +14469,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="179" ht="14.25" spans="1:9">
+    <row r="179" ht="13.2" spans="1:9">
       <c r="A179" s="3" t="s">
         <v>775</v>
       </c>
@@ -14511,7 +14498,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="180" ht="14.25" spans="1:9">
+    <row r="180" ht="13.2" spans="1:9">
       <c r="A180" s="3" t="s">
         <v>1175</v>
       </c>
@@ -14540,7 +14527,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="181" ht="14.25" spans="1:9">
+    <row r="181" ht="13.2" spans="1:9">
       <c r="A181" s="3" t="s">
         <v>1181</v>
       </c>
@@ -14569,7 +14556,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="182" ht="14.25" spans="1:9">
+    <row r="182" ht="13.2" spans="1:9">
       <c r="A182" s="3" t="s">
         <v>609</v>
       </c>
@@ -14598,7 +14585,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="183" ht="14.25" spans="1:9">
+    <row r="183" ht="13.2" spans="1:9">
       <c r="A183" s="3" t="s">
         <v>1190</v>
       </c>
@@ -14627,7 +14614,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="184" ht="14.25" spans="1:9">
+    <row r="184" ht="13.2" spans="1:9">
       <c r="A184" s="3" t="s">
         <v>775</v>
       </c>
@@ -14656,7 +14643,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="185" ht="14.25" spans="1:9">
+    <row r="185" ht="13.2" spans="1:9">
       <c r="A185" s="3" t="s">
         <v>1199</v>
       </c>
@@ -14685,7 +14672,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="186" ht="14.25" spans="1:9">
+    <row r="186" ht="13.2" spans="1:9">
       <c r="A186" s="3" t="s">
         <v>1204</v>
       </c>
@@ -14916,7 +14903,7 @@
       <selection activeCell="X24" sqref="X24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
@@ -19932,7 +19919,7 @@
       <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12" outlineLevelRow="2" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -19942,12 +19929,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:1">
+    <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>1782</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:1">
+    <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>1783</v>
       </c>
@@ -19967,11 +19954,11 @@
   <sheetPr/>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G28" sqref="H33 G28"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F5" sqref="C3:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="43.4285714285714" customWidth="1"/>
   </cols>
@@ -19993,8 +19980,8 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="2" ht="13.2" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>1782</v>
       </c>
       <c r="B2" t="s">
@@ -20007,8 +19994,8 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+    <row r="3" ht="13.2" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>1782</v>
       </c>
       <c r="B3" t="s">
@@ -20342,6 +20329,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="https://yeti-cms.dev/yeti/main/articles/edit/162"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://yeti-cms.dev/yeti/main/articles/edit/162"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/src/test/resources/testdata/DataCMS.xlsx
+++ b/src/test/resources/testdata/DataCMS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="21360" firstSheet="5" activeTab="11"/>
+    <workbookView windowWidth="28800" windowHeight="12450" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="sampleDetail" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="writerReview" sheetId="4" r:id="rId6"/>
     <sheet name="writerSelection" sheetId="12" r:id="rId7"/>
     <sheet name="customerReview" sheetId="6" r:id="rId8"/>
-    <sheet name="dataServicePage" sheetId="8" r:id="rId9"/>
+    <sheet name="dataHeader" sheetId="8" r:id="rId9"/>
     <sheet name="constants" sheetId="9" r:id="rId10"/>
     <sheet name="customerSelection" sheetId="13" r:id="rId11"/>
     <sheet name="home" sheetId="14" r:id="rId12"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4271" uniqueCount="1842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4264" uniqueCount="1870">
   <si>
     <t>NAME</t>
   </si>
@@ -5380,85 +5380,151 @@
     <t>Assessment</t>
   </si>
   <si>
-    <t>NoteEditableElement</t>
-  </si>
-  <si>
-    <t>Order</t>
-  </si>
-  <si>
-    <t>Element Type</t>
-  </si>
-  <si>
-    <t>Content</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/articles/edit/162</t>
-  </si>
-  <si>
-    <t>Edit Intro</t>
-  </si>
-  <si>
-    <t>List</t>
-  </si>
-  <si>
-    <t>List Item</t>
-  </si>
-  <si>
-    <t>Meet deadlines</t>
-  </si>
-  <si>
-    <t>Confidentiality</t>
-  </si>
-  <si>
-    <t>100% plagiarism free</t>
-  </si>
-  <si>
-    <t>FAQ Banner</t>
-  </si>
-  <si>
-    <t>Paragraph</t>
-  </si>
-  <si>
-    <t>Offer</t>
-  </si>
-  <si>
-    <t>Header</t>
-  </si>
-  <si>
-    <t>Rely on our A-Level essay writing service for alignment with the curriculum</t>
-  </si>
-  <si>
-    <t>Our essay writing service assists students in writing for a wide range of AQA exams and assessments, covering subjects such as Mathematics, English, Psychology, and Media Studies. Whether you are transitioning from GCSEs or tackling your EPQ, our essay writers are here to offer A-level essay writing help. We understand the unique requirements that AQA places on its assessments, and our writing service is available 24/7 for A-level exams and coursework writing help. With free unlimited revisions and a 100% money-back guarantee, there is no risk to using our academic writing service.</t>
-  </si>
-  <si>
-    <t>av</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/articles/edit/163</t>
-  </si>
-  <si>
-    <t>24/7 customer support</t>
-  </si>
-  <si>
-    <t>Have a question?</t>
-  </si>
-  <si>
-    <t>When you need to buy an article critique, you might want to be certain of the writing service’s reliability. If your question isn’t answered, please contact our 24/7 customer support.</t>
-  </si>
-  <si>
-    <t>FAQ</t>
-  </si>
-  <si>
-    <t>What types of article critiques can I order?</t>
-  </si>
-  <si>
-    <t>When ordering article critiques from our college writing service, you can request critiques on various types of articles, including research studies, literature reviews, theoretical discussions, and case studies. We have professional writers in fields like psychology, nursing, and marketing who specialize in analyzing and evaluating articles.</t>
-  </si>
-  <si>
-    <t>Rely on our article critique writing service</t>
-  </si>
-  <si>
-    <t>At our essay writing service, we understand that critique writing involves a detailed assessment of the article’s content, methodology, relevance, and impact on the field, encouraging students to engage deeply with the material beyond just summarizing it. Our academic writers guarantee to analyze and evaluate a scholarly article assigned to you by your college professor and write high-quality and custom critique. This type of assignment will be written by one of our professional paper writers without plagiarism, error-free, and correctly cited in the required citation style. Additionally, we guarantee to provide free unlimited revisions, money back, and 24/7 customer support if you buy article critique online on our website.</t>
+    <t>EDIT_FAQ_BANNNER</t>
+  </si>
+  <si>
+    <t>EDIT_FAQ</t>
+  </si>
+  <si>
+    <t>admission-essay-writing-service</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Fast turnaround&lt;/li&gt;&lt;li&gt;100% plagiarism free&lt;/li&gt;&lt;li&gt;Unlimited revisions&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Have a question?&lt;/h2&gt;&lt;p&gt;Before hiring a college admission essay writer on our website, you might want to gain more clarity on how our writing services work. If you can’t find an answer to your question, please contact our 24/7 customer support.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;What information do you need from me to write my college application essay?&lt;/h3&gt;&lt;/div&gt;&lt;img alt="arrow" src="/media/arrow-right-up-dark-blue.svg" width="32" height="32" decoding="async" data-nimg="1" class="arrow false" loading="lazy" style="color: transparent;"&gt;&lt;/div&gt;&lt;div class="body active" style="height: 416px;"&gt;&lt;p&gt;If you decide to place an order with our college application essay writing service, we recommend providing the following information to increase your chances of receiving top-quality custom paper:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Essay Prompt&lt;/b&gt;: The specific question or topic you need to address.&lt;/li&gt;&lt;li&gt;&lt;b&gt;Personal Details&lt;/b&gt;: Information about your background, experiences, and achievements.&lt;/li&gt;&lt;li&gt;&lt;b&gt;Goals and Aspirations&lt;/b&gt;: Your career goals and why you want to attend the particular program or school.&lt;/li&gt;&lt;li&gt;&lt;b&gt;School Information&lt;/b&gt;: Any details about the school or program you are applying to, including why you chose it.&lt;/li&gt;&lt;li&gt;&lt;b&gt;Personal Stories&lt;/b&gt;: Any specific anecdotes or stories that highlight your personality and character.&lt;/li&gt;&lt;li&gt;&lt;b&gt;Drafts or Notes&lt;/b&gt;: If you have any initial drafts, notes, or ideas, please share them with us.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Providing these details will help our admission essay writer to write a personalized and compelling essay that truly represents you.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Rely on our college admissions essay writing service to write your unique story&lt;/h2&gt;&lt;p&gt;An admission essay is a crucial component of your college application, and at our essay writing service, we take writing it very seriously. Our admission essay writers can professionally incorporate your personal experiences, achievements, or challenges into the custom essay, ensuring that all thoughts are organized and your ideas are clearly expressed to make a positive impression on your admissions committee. Our custom writing service guarantees to follow the specific prompts or questions provided by your college, ensuring it is professionally written without grammatical and punctuation mistakes, and follow directly to the prompts. Additionally, we ensure to submit your admission essay by the deadline, offer free unlimited revisions to guarantee your satisfaction, and provide a 100% money-back guarantee to ensure you have the best experience working with our essay company.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;What steps does your writing service take to ensure a quality application essay?&lt;/h3&gt;&lt;/div&gt;&lt;img alt="arrow" src="/media/arrow-right-up-dark-blue.svg" width="32" height="32" decoding="async" data-nimg="1" class="arrow not-active" loading="lazy" style="color: transparent;"&gt;&lt;/div&gt;&lt;div class="body "&gt;&lt;p&gt;Our team and your assigned professional admission essay writer collaborate using a specific quality checklist to ensure you receive a high-quality admission essay that follows college prompts and guidelines.&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Understanding Requirements&lt;/b&gt;: Our company carefully reviews the college essay prompt and any specific instructions provided, and we will contact you if we have any questions. If everything is clear, we will assign someone who matches your instructions the best.&lt;/li&gt;&lt;li&gt;&lt;b&gt;Assigning a Writer&lt;/b&gt;: We match you with a professional admission essay writer who has experience in your field and understands your needs and college essay prompts and guides.&lt;/li&gt;&lt;li&gt;&lt;span style="margin: 0px; padding: 0px;"&gt;&lt;strong&gt;Gathering Information&lt;/strong&gt;: Your entrance essay writer reviews information about your background, achievements, goals, and the college you are applying to and starting to write a first draft.&lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;b&gt;Revisions and Feedback&lt;/b&gt;: Our writing service can send you the draft for review. You can provide feedback and request any changes.&lt;/li&gt;&lt;li&gt;&lt;b&gt;Finalizing the Essay&lt;/b&gt;: The writer incorporates your feedback and makes necessary revisions to ensure the essay is polished and compelling.&lt;/li&gt;&lt;li&gt;&lt;b&gt;Proofreading&lt;/b&gt;: The essay undergoes a thorough proofreading process to eliminate any grammatical or typographical errors.&lt;/li&gt;&lt;li&gt;&lt;span style="margin: 0px; padding: 0px;"&gt;&lt;strong&gt;Delivering the Essay&lt;/strong&gt;: Our company will deliver the final admission essay directly to your email, and even after the final submission, you can still reach out to us if any additional changes are needed.&lt;/span&gt;&amp;nbsp;We provide admission essay writing help 24/7.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;By following these steps, our essay writing service ensures that your application essay is high-quality, personalized, and effective.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Can I communicate directly with the writer assigned to my essay?&lt;/h3&gt;&lt;/div&gt;&lt;img alt="arrow" src="/media/arrow-right-up-dark-blue.svg" width="32" height="32" decoding="async" data-nimg="1" class="arrow not-active" loading="lazy" style="color: transparent;"&gt;&lt;/div&gt;&lt;div class="body "&gt;&lt;p&gt;Yes, we provide direct communication with the application essay writer. Through your personal account, you can chat with the writer, ask any questions about the progress of your essay, provide additional recommendations, or request a draft.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>buy-personal-statement</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Fast turnaround&lt;/li&gt;&lt;li&gt;Affordable prices&lt;/li&gt;&lt;li&gt;24/7 customer support&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Who will write my personal statement?&lt;/h3&gt;&lt;/div&gt;&lt;img alt="arrow" src="/media/arrow-right-up-dark-blue.svg" width="32" height="32" decoding="async" data-nimg="1" class="arrow not-active" loading="lazy" style="color: transparent;"&gt;&lt;/div&gt;&lt;div class="body "&gt;&lt;p&gt;At our essay writing service, you can hire a professional academic writer who has experience with writing personal statements and resumes for students at various levels and who is an expert in your specific area. They can write personal statements for high school, college, and even Ph.D. candidates. Our writers understand how to begin your personal statement, how to list your academic background and personal experience, set your goals, and explain why you are a fit for the program. Hiring a personal statement writer from our website guarantees that a professional will write it for you.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Rely on our writing service when you want to buy a personal statement online&lt;/h2&gt;&lt;p&gt;Our essay writing service is very familiar with writing personal statements and understands the importance of this document for students. When you decide to buy a personal statement from our website, you can be sure that our academic writers are professionals who clearly understand how to write it from scratch. They know how to highlight unique personal insights, professional experiences, and individual perspectives to catch the selection committee’s attention and demonstrate your interest and suitability for the position or program you want to apply to. Additionally, our writing service guarantees to provide you with free unlimited revisions, a 100% money-back guarantee, and 24/7 customer support to ensure your experience with us is top-notch.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;What is the price for personal statement writing?&lt;/h3&gt;&lt;/div&gt;&lt;img alt="arrow" src="/media/arrow-right-up-dark-blue.svg" width="32" height="32" decoding="async" data-nimg="1" class="arrow false" loading="lazy" style="color: transparent;"&gt;&lt;/div&gt;&lt;div class="body active" style="height: 216px;"&gt;&lt;p&gt;Our essay writing service strives to keep prices affordable and as cheap as possible. The starting price for one double-spaced page (275 words) at the high school level is $11.99. Prices may vary depending on the academic level, deadline, and number of pages. As mentioned on our website, we aim to be budget-friendly and offer our clients various discounts and promotions that can further reduce the price and make it even cheaper.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Can I chat with my personal statement writer directly?&lt;/h3&gt;&lt;/div&gt;&lt;img alt="arrow" src="/media/arrow-right-up-dark-blue.svg" width="32" height="32" decoding="async" data-nimg="1" class="arrow not-active" loading="lazy" style="color: transparent;"&gt;&lt;/div&gt;&lt;div class="body "&gt;&lt;p&gt;Yes, to ensure the best personal statement writing services, we provide a direct chat feature with your academic paper writer in your personal account on our website. After filling out our simple online order form, you will have an opportunity to send and receive messages from the writer, ensuring that everything is on track and meets your expectations. You can ask your paper writer about the progress, request a draft, or ensure that it will be ready by your deadline.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>do-my-coursework</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Fast turnaround&lt;/li&gt;&lt;li&gt;100% plagiarism free&lt;/li&gt;&lt;li&gt;Meet deadlines&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>h2&gt;Reply on our writing service to do your coursework&lt;/h2&gt;&lt;p&gt;Our writing service and the professionals you can hire on our website are here to fully support you. We guarantee to do professional coursework from scratch, submit it on time, and strictly follow your instructions. By receiving detailed instructions and all necessary materials from you, our company ensures that the custom paper meets academic standards and specific assignment requirements, increasing your chances of receiving the highest grade for your final project. Additionally, we offer free unlimited revisions, a 100% money-back guarantee, and 24/7 customer support to ensure your experience with our online coursework writing service is of the highest quality.&amp;nbsp;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Pay someone to do your coursework online&lt;/h2&gt;&lt;p&gt;Coursework is a crucial part of the educational curriculum, and at our paper writing service, we understand this well. It may encompass a range of assignments, projects, and assessments that need to be completed by a specific deadline and according to university requirements. Managing coursework alongside other academic responsibilities and personal commitments can be time-consuming, and might signal the need to hire someone to do your coursework.&lt;/p&gt;&lt;p&gt;We offer professional coursework writing services for students from high school through graduate studies, guaranteeing timely completion of your projects, free of plagiarism, and in strict adherence to provided instructions. Our academic writers are familiar with various types of coursework assignments, including:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Essays;&lt;/li&gt;&lt;li&gt;Research papers;&lt;/li&gt;&lt;li&gt;Case studies;&lt;/li&gt;&lt;li&gt;Assessments;&lt;/li&gt;&lt;li&gt;Capstone projects;&lt;/li&gt;&lt;li&gt;Laboratory reports;&lt;/li&gt;&lt;li&gt;Presentations.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;span style="margin: 0px; padding: 0px;"&gt;Additionally, to that familiarity, our&amp;nbsp;&lt;a href="https://writersperhour.com/" target="_blank"&gt;paper writing company&lt;/a&gt;&amp;nbsp;guarantees that any of our coursework writer you hire from this website will be a subject matter expert, well-versed in academic formatting styles (APA, MLA, Harvard, Chicago, etc.), and will maintain the highest level of professionalism to do your coursework.&lt;/span&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;How the ordering process work&lt;/h3&gt;&lt;p&gt;Imagine you decide to pay someone to do your coursework. It’s important to carefully consider choosing the most professional and user-friendly coursework writing service. Our company has designed a professional online order form based on years of experience in providing academic writing services to high school and graduate-level students. By listening to their requests and suggestions, we have addressed all their concerns and created the fastest and safest online order form so you can hire someone to do your coursework in just a few clicks. To do my coursework paper, we will ask you to do the following:&lt;/p&gt;&lt;p&gt;&lt;b&gt;Step 1: Fill Out the Order Form&lt;/b&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Start by completing our online order form. This is where you'll share your order requirements:&lt;/li&gt;&lt;li&gt;The academic level of your paper (High school, College, Graduate, etc.);&lt;/li&gt;&lt;li&gt;Find your course or discipline (English, Math, Business, Psychology, etc.);&lt;/li&gt;&lt;li&gt;Write your coursework instructions and any insights given by your professor;&lt;/li&gt;&lt;li&gt;Choose the preferred completion date and specify urgency (starting from 5 hours to 30 days);&lt;/li&gt;&lt;li&gt;Required citation style (APA, MLA, Chicago, Harvard, etc.);&lt;/li&gt;&lt;li&gt;Number of pages (words) or PowerPoint slides;&lt;/li&gt;&lt;li&gt;Pay for additional services to enhance the quality of your coursework assignment (Advanced writer, ENL/ESL, etc.).&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;b&gt;Step 2: Pay for university coursework&lt;/b&gt;&lt;/p&gt;&lt;p&gt;Once the form is filled out, you'll proceed to pay for uni coursework. Choose the most convenient method, whether it's PayPal or direct card payment. Rest assured, your payment will be processed through a secure payment form. Our writing service also offers a money-back guarantee in case you're not satisfied with the coursework service the writer provided you with.&lt;/p&gt;&lt;p&gt;Step 3: We Assign a Professional Writer&lt;/p&gt;&lt;p&gt;With your order details and payment sorted, we'll assign your coursework to a professional academic writer who has extensive experience in writing academic papers. Our coursework writers are experts in their fields, ensuring that you will get the highest quality &lt;a href="https://writersperhour.com/assessment-help" title="" target="_blank"&gt;assessment help services&lt;/a&gt;.&lt;/p&gt;&lt;p&gt;&lt;b&gt;Step 4: Delivery and Revisions&lt;/b&gt;&lt;/p&gt;&lt;p&gt;When your writer completes your coursework for you, it will be emailed and made available for download on our website in your personal account at any time. Plus, we offer free unlimited revisions for 30 days after submission, ensuring that your academic paper perfectly meets your expectations.&lt;/p&gt;&lt;p&gt;Our process is designed to provide you with the best custom coursework writing services available. Whether you're looking to pay for a coursework or need an expert to 'do my coursework for me,' we're here 24/7 to help. Don't let the pressure of your coursework weigh you down. Let our professional writers do your coursework without plagiarism, well-formatted, and error-free.&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>do-my-math-hw</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Fast turnaround&lt;/li&gt;&lt;li&gt;Meet deadlines&lt;/li&gt;&lt;li&gt;24/7 customer support&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Rely on us when you want to pay to do math homework for you&lt;/h2&gt;&lt;p&gt;Our assignment writing service employs professional math homework writers to assist you with various written tasks, regardless of their complexity and deadline. Our writers can handle problem sets, worksheets, projects, and other study assignments, ensuring your math homework is completed professionally. At our math problem writing help service, you can also find someone to do your urgent math online classes, take exams, or write essay papers. To ensure the highest quality, we offer free unlimited revisions, a 100% money-back guarantee, and 24/7 customer support to make your experience on our website exceptional.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Our writers will do your math homework for money&lt;/h2&gt;&lt;p&gt;‘Can I pay someone to do my math homework?’ That’s a question we frequently hear from students who come to our assignment writing service. There are many reasons why students want to hire an online homework writer and pay money for their homework. Based on our company’s experience, reasons may include a fear of math, timed online tests, or complex problem-solving homework that takes a lot of time and requires advanced skills. At our custom writing service, you can easily hire a homework writer who will solve your math problems according to the given instructions and meet even the tightest deadlines for online exams. Our writers possess excellent analytical and critical thinking skills, along with problem-solving abilities and perfect time management required to complete math assignments. With attention to detail and an understanding of numbers and operations, we guarantee that we can do your math homework at the level required by your academic institution.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Pay for math homework with benefits&lt;/h3&gt;&lt;p&gt;Our academic writing service is ready to provide you with multiple benefits if you decide to get help with your math homework from our website. To ensure you feel safe and comfortable using our online platform, we offer various paid and free extras that you can use to enhance your security or improve the quality of writing.&lt;/p&gt;&lt;p&gt;&lt;b&gt;24/7 customer support&lt;/b&gt;: Our custom writing service provides non-stop support to ensure you are always in touch with our team or your math homework writer directly if you have any questions or queries. By reaching out to us, you can always ask questions, check the progress of your assignment, or provide additional recommendations to avoid further revisions and ensure the homework writing process is going smoothly.&lt;/p&gt;&lt;p&gt;&lt;b&gt;Direct chat with the writer&lt;/b&gt;: To ensure the best math homework writing help, we provide a direct chat feature with your homework writer in your personal account. You can send and receive messages from the writer, ensuring that everything is on track and meets your expectations. You can ask about the progress and ensure that the right mathematical concepts are used and that the timing of your online exam is met.&lt;/p&gt;&lt;p&gt;&lt;b&gt;Wide range of disciplines&lt;/b&gt;: We are one of the websites that do your math homework for you across a wide range of disciplines and topics. We have experts who can take your math exam for you and solve your math problems in any discipline you may encounter throughout your educational journey. Here is what we do:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Algebra (Basic, Intermediate, Advanced, Linear)&lt;/li&gt;&lt;li&gt;Geometry (Plane, Solid, Analytical, Differential)&lt;/li&gt;&lt;li&gt;Calculus (Differential, Integral, Multivariable)&lt;/li&gt;&lt;li&gt;Trigonometry (Angle, Identities, Equations)&lt;/li&gt;&lt;li&gt;Statistics (Descriptive, Inferential, Theoretical)&lt;/li&gt;&lt;li&gt;Complex and real Analysis&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;b&gt;Unlimited revisions&lt;/b&gt;: To ensure you get the best homework writing services and all requirements are met, we provide free revisions until you are fully satisfied. For 30 days after your homework is submitted, you are entitled to request free revisions through your personal account. Whether sharing your professor’s feedback or requesting minor corrections, you are guaranteed to receive a revised version of your paper by qualified writers within the shortest possible deadline.&lt;/p&gt;&lt;p&gt;&lt;b&gt;Follow Deadlines&lt;/b&gt;: Our professional academic writers are equipped to meet even the tightest deadlines, starting from just 3-5 hours. The experience gained from providing&lt;a href="https://writersperhour.com/exam-writing-service" title="" target="_blank"&gt; exam writing services&lt;/a&gt; to students has prepared us to complete assignments within short deadlines while ensuring the submission of original papers.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Plagiarism-free&lt;/strong&gt;: Our custom writing service ensures that if you pay money to do your math homework from our website, it will be written from scratch and correctly cited if required by your college.&amp;nbsp;If you want to be absolutely sure of its uniqueness, we are ready to provide you with a free originality report from Turnitin.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>political-science-essay-writing-service</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Meet deadlines&lt;/li&gt;&lt;li&gt;24/7 customer support&lt;/li&gt;&lt;li&gt;100% plagiarism free&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Have a question?&lt;/h2&gt;&lt;p&gt;Before using our political science essay writing service, students usually ask questions about our guarantees and processes. If you can’t find an answer to your question, please contact our 24/7 customer support.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Can your essay writing service handle essays on American politics?&lt;/h3&gt;&lt;/div&gt;&lt;img alt="arrow" src="/media/arrow-right-up-dark-blue.svg" width="32" height="32" decoding="async" data-nimg="1" class="arrow false" loading="lazy" style="color: transparent;"&gt;&lt;/div&gt;&lt;div class="body active" style="height: 84px;"&gt;&lt;p&gt;Yes! Our essay writing service specializes in a wide range of political science topics, including American politics. Our essay writers are well-versed in the complexities of American political systems, current events, and historical contexts. Our writing service ensures that each essay is thoroughly researched, well-argued, and tailored to meet your specific needs and academic standards.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Rely on our custom political science essay writing service&lt;/h2&gt;&lt;p&gt;At our online essay writing service, you can hire a professional academic writer familiar with various types and topics of political science essays, including government, politics, and analyses of political behavior. Our political science essay writers can professionally analyze political theories, international relations, and different political systems to write a high-quality academic paper just for you. Regardless of the complexity of your topic, your deadlines, or any specific requirements from your college, our company guarantees that it can be managed by one of our expert paper writers for hire. Additionally, our custom writing service provides free unlimited revisions, a 100% money-back guarantee, and 24/7 customer support to ensure your experience with us is legal and of the highest quality.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Do you guarantee my essay will be free from plagiarism?&lt;/h3&gt;&lt;/div&gt;&lt;img alt="arrow" src="/media/arrow-right-up-dark-blue.svg" width="32" height="32" decoding="async" data-nimg="1" class="arrow not-active" loading="lazy" style="color: transparent;"&gt;&lt;/div&gt;&lt;div class="body "&gt;&lt;p&gt;Yes, we guarantee that every essay written by our political science essay writer is created from scratch and is completely free from plagiarism. To assure you, our writing service can provide a free originality report from Turnitin upon your request.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Can I chat directly with my writer?&lt;/h3&gt;&lt;/div&gt;&lt;img alt="arrow" src="/media/arrow-right-up-dark-blue.svg" width="32" height="32" decoding="async" data-nimg="1" class="arrow not-active" loading="lazy" style="color: transparent;"&gt;&lt;/div&gt;&lt;div class="body "&gt;&lt;p&gt;Yes! Our essay writing service provides a direct chat feature with your academic writer in your personal account. You can send and receive messages from the writer, ensuring that everything is on track and meets your expectations. You can ask about the progress, inquire about the topic selected for your political science essay, if the writer is doing the right research, use reliable academic sources, and so on.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>ib-writing-service/ia-writing-service</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;100% plagiarism free&lt;/li&gt;&lt;li&gt;Confidentiality&lt;/li&gt;&lt;li&gt;&lt;b&gt;SL&lt;/b&gt; &amp;amp; &lt;b&gt;HL&lt;/b&gt; assistance&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Enjoy our IB IA writing services, and rest assured that an expert is handling it&lt;/h2&gt;&lt;p&gt;Writing top-notch Internal Assessments (IAs) requires profound knowledge and meticulous attention to detail. Our team guarantees that our IB IA paper writers are well-versed in the latest requirements and familiar with various disciplines from the IB program. They can write Standard Level (SL) and Higher Level (HL) papers no matter what course you are in, be it math, chemistry, or computer science. Our writing service offers free unlimited revisions, a 100% money-back guarantee, and 24/7 customer support, making us a reliable IB writing service. Buy your internal assessment paper online and rest assured that a real expert is handling it.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Is there an IA writing service for IB? Yes, we offer one!&lt;/h2&gt;&lt;p&gt;Our &lt;a href="https://writersperhour.com/ib-writing-service" title="" target="_blank"&gt;IB writing service&lt;/a&gt; boasts a team of specialized IB writers who are experts in crafting internal assessments across various disciplines. They are well-versed in the structure of top-scoring internal assessments and familiar with scientific terminology and methodologies. Our writers understand that proper guidelines are crucial for achieving high scores. We provide IA writing services tailored to the specific requirements of different subjects, recognizing that each discipline has unique standards. Our team comprises professionals with extensive experience in academic writing, particularly IB papers. They possess excellent research and creative writing skills, enabling them to write high-quality internal assessments for students from scratch.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Benefits of buying IA papers from our writing service&lt;/h3&gt;&lt;p&gt;As an experienced essay writing service, we understand what students need when preparing for the IBDP IA, and we are ready to offer multiple benefits to help you achieve the best marks and successfully earn your diploma. Here are some of the benefits you can expect when you purchase your IA paper from us.&lt;/p&gt;&lt;p&gt;&lt;b&gt;Free Topic Suggestions&lt;/b&gt; - Our academic writers can assist with topic and research question ideas for your IA. Please note that to receive an original idea, you must first purchase an IA and have a writer assigned. Once they begin reviewing your IA details, they can contact you directly with free suggestions that you can later approve with your tutor. Only after your approval will we start working on the first draft.&lt;/p&gt;&lt;p&gt;&lt;b&gt;IB-trained professionals&lt;/b&gt; - We provide professional IA services for IB students across multiple disciplines. Using our website, you can have any discipline written professionally and well-structured. We guarantee to provide you with coding for your computer science IA, create and explain diagrams for your economics IA, and identify relevant organizations and issues for your Business Management IA, among many other specialized IB requirements managed by our writers.&lt;/p&gt;&lt;p&gt;&lt;b&gt;Direct chat with the writer&lt;/b&gt;: To ensure the best IA paper writing help, we provide a direct chat feature with your IB essay writer in your personal account. You can send and receive messages from the writer, ensuring that everything is on track and meets your expectations. You can ask about the progress, inquire about the topic or research question selected for your internal assessment, and ensure that the write will meet your deadline.&lt;/p&gt;&lt;p&gt;&lt;b&gt;Confidentiality&lt;/b&gt; - We guarantee confidentiality for all IB students and their parents seeking ‘ia write for me’ help. As a legitimate essay writing service with a strong reputation, we protect our clients’ personal information. We never share any materials or your research with IB schools, nor do we use it to write someone else’s work. Working with us, you can be confident that all your data will remain safe and confidential.&lt;/p&gt;&lt;p&gt;&lt;b&gt;Affordable pricing&lt;/b&gt; - We keep our IA writer pricing affordable for students by offering various promotions and special deals. Particularly, if you want to purchase IAs for friends, we have an excellent referral program that allows you to earn with us and save on future orders. Reach out to our 24/7 customer support, and we will guide you on how to buy IA papers and earn.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Homenew</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;WritersPerHour is your paper writing service you can rely on&lt;/h2&gt;&lt;p&gt;What exactly do we do? We satisfy all ‘write my essay’ requests from students and all other people who need help with essay writing or editing. These are just a few words describing the main purpose of this website. Beyond that, we’ve developed a comprehensive and complex process to make our essay writing services the most trusted and reliable — from managing and engaging the best essay writers available online to building a quality control system that helps us write essays for students for money on the highest quality level.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Have a question?&lt;/h2&gt;&lt;p&gt;Many first-time visitors to our essay writing service provider have similar questions. We’ve compiled them to help you quickly find the information you need before purchasing an essay on our website. If you don’t find yours, please contact us.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Is it legal to use Writers Per Hour?&lt;/h3&gt;&lt;/div&gt;&lt;img alt="arrow" src="/media/arrow-right-up-dark-blue.svg" width="32" height="32" decoding="async" data-nimg="1" class="arrow not-active" loading="lazy" style="color: transparent;"&gt;&lt;/div&gt;&lt;div class="body "&gt;&lt;p&gt;Yes, using Writers Per Hour is completely legal. It’s intended as a study aid to deepen your understanding of various topics. You can use our documents for inspiration to develop your own views and arguments, compare them with your work for different perspectives, or use them as a guide to focus your research and structure your submissions. Our writing services also help ensure that your academic work meets all necessary requirements. Remember, our academic papers should be used as models and guides for your own work, not as your final submission.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Enjoy using an essay writing service that will provide top-quality, plagiarism-free essays&lt;/h2&gt;&lt;p&gt;Getting your paper written on our website guarantees that your instructions will be followed, a subject matter expert will be assigned to your order, the deadline will be met, and the final draft will be delivered to you with proof of originality. Start enjoying the benefits of using our essay writing service today and you won’t be disappointed. With multiple free add-ons and extra services, we will write your essay on a new level of quality and academic standard.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Allow professionals to 'write my essay for me'&lt;/h3&gt;&lt;p&gt;Researching for an essay writing service, undergraduate students are most concerned about its legality, professionalism, and the choice of essay writer. When you consider hiring a writer online for an essay or research paper, it’s super important to choose the right company. We understand the importance of ensuring that you will not face any last-minute scams right before submission, allowing you to reduce your stress and focus on other priorities. Let us provide a brief overview of how we maintain the quality of our services on the top level.&lt;/p&gt;&lt;h4&gt;Professional order form to capture every detail&lt;/h4&gt;&lt;p&gt;We have designed a professional online order form based on years of experience in providing academic writing assistance to diverse students. By listening to their requests and suggestions, we have addressed all their concerns and created the most user-friendly online order form to manage ‘write my essay’ requests. To write a superb essay for you, we will ask you to provide:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Academic level of your paper;&lt;/li&gt;&lt;li&gt;Type of paper and your discipline;&lt;/li&gt;&lt;li&gt;Essay instructions and recommended topic;&lt;/li&gt;&lt;li&gt;Preferred completion date and specify urgency;&lt;/li&gt;&lt;li&gt;Required citation style;&lt;/li&gt;&lt;li&gt;Number of pages or PPT slides;&lt;/li&gt;&lt;li&gt;Additional services to enhance the quality of your essay;&lt;/li&gt;&lt;li&gt;Option to hire a writer who has previously worked on your orders;&lt;/li&gt;&lt;li&gt;Preferred payment method.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Our team has noticed an important aspect during our internal research reviews: the quality of the work we provide depends significantly on how detailed and timely your instructions are. Do not neglect filling out the form. Make sure to clearly describe exactly what you want us to do and how. Attach your grading criteria, rubric, any notes from your university lectures that are relevant to your order. If the paper requires the use of specific sources—such as books, articles, or journals—ensure to attach them in PDF format or share a link to your online library account where we can access them. The more detailed your instructions, the quicker and more effectively our writers can complete your assignment.&lt;/p&gt;&lt;h4&gt;Support of your paper from the start to the final draft&lt;/h4&gt;&lt;p&gt;Our custom essay writing process involves a large team of professionals and other people who understand the nuances of completing exceptional essays for students and meeting the demands of even the most discerning clients. We ensure that each order is meticulously reviewed to confirm the following:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;The essay addresses the correct topic;&lt;/li&gt;&lt;li&gt;It is properly cited in the requested academic format;&lt;/li&gt;&lt;li&gt;The correct number of sources has been used;&lt;/li&gt;&lt;li&gt;The essay includes a free title page, reference page, and page numbers;&lt;/li&gt;&lt;li&gt;A free originality report is included if requested;&lt;/li&gt;&lt;li&gt;An abstract page is included if initially added to the order;&lt;/li&gt;&lt;li&gt;The order is submitted on time without any delays;&lt;/li&gt;&lt;li&gt;Ensuring that relevant sources are used and the information is accurate;&lt;/li&gt;&lt;li&gt;Checking for any grammar and punctuation mistakes.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;In this process, many professionals are involved, from research specialists to editors, revisers, and quality assurance specialists. They ensure each essay meets your initial instructions, is completed on time, and is submitted as soon as possible so you have extra time to prepare the final paper for your class. Additionally, we ensure there are no misunderstandings between you and the assigned essay writer and that all instructions are available, understandable, and met.&lt;/p&gt;&lt;h4&gt;Ongoing assistance for all orders even after delivery&lt;/h4&gt;&lt;p&gt;Our commitment to your academic success doesn’t end with the delivery of the final draft. We continue to offer 24/7 support providing free unlimited revisions and corrections, and any kind of Q&amp;amp;A help you may have to ensure that the academic paper meets your university requirements and your professor’s expectations. Most importantly, we want to ensure that you are completely satisfied with getting paper writing help on our website, so there are no lingering questions like ‘which is the best place to get essay help online?’ because you already have your answer. This ongoing support is part of our dedication to offering safe, legal, and highly professional writing services that you can rely on for your most critical academic assignments.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Can I chat with my paper writer directly?&lt;/h3&gt;&lt;/div&gt;&lt;img alt="arrow" src="/media/arrow-right-up-dark-blue.svg" width="32" height="32" decoding="async" data-nimg="1" class="arrow not-active" loading="lazy" style="color: transparent;"&gt;&lt;/div&gt;&lt;div class="body "&gt;&lt;p&gt;Yes, our company offers direct communication with your hired paper writer through a messaging system in your personal account at our website. You can directly guide the writer on how you want your essay to be written, especially if any specific terminology, sources, or materials require extra attention. Please note that messaging will be available as soon as a writer accepts your order.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Various types of paper writing help&lt;/h3&gt;&lt;p&gt;At our essay writing service, we continuously work to expand our community and provide various types of professional essay writing help for students at all levels. By working with us, you are guaranteed comprehensive assistance with different types of essay papers and other academic assignments. Our services include writing scholarship essays, argumentative essays, persuasive essays, descriptive essays, expository essays, reflective essays, analytical essays, and many others.&lt;/p&gt;&lt;p&gt;Apart from essay writing help, you can hire a paper writer for any graduate or postgraduate assignment, including reports, case studies, theses, term papers, PowerPoint presentations, reviews, discussion posts, dissertations, and more.&lt;/p&gt;&lt;p&gt;We’re always looking to add more professional academic writers for hire with different personal experiences and academic backgrounds to our team. This helps make our custom essay writing service even better and more reliable. Our writers understand how to develop a strong thesis statements, how to start with great hooks, build solid arguments, and finish essay with powerful conclusions that really sum up the main points and give a final thought on the assigned topic. This ensures that each essay we write for students helps boost their grades and improves their academic performance. We’re dedicated to constantly improving our academic writing services so every high school or postgraduate student gets great value and quality, no matter what kind of paper they need.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Do you offer any discounts for new customers?&lt;/h3&gt;&lt;/div&gt;&lt;img alt="arrow" src="/media/arrow-right-up-dark-blue.svg" width="32" height="32" decoding="async" data-nimg="1" class="arrow not-active" loading="lazy" style="color: transparent;"&gt;&lt;/div&gt;&lt;div class="body "&gt;&lt;p&gt;Yes, our essay writing service offers discounts for both new and returning clients. As a first-time client, you can receive a discount starting at 10% or more. By continuing to use our writing services, you will have the opportunity to receive regular promo codes for discounts ranging from 15-25% on your orders. For more information, please visit our ‘&lt;a href="https://writersperhour.com/prices-and-discounts" title="" target="_blank" style="background-color: rgb(255, 255, 255);"&gt;Prices and Discounts&lt;/a&gt;’ page. Also, note that we run ‘&lt;b&gt;Today’s Hottest Deal&lt;/b&gt;,’ allowing you to hire a paper writer for your essay each day with a unique discount code.&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Hire professional essay writers now to achieve top results&lt;/h3&gt;&lt;p&gt;All our academic writers for hire are going through the quality control process before starting to write. It’s crucial that every candidate possesses the necessary skills required to write essays for money, especially since this can be very stressful in a 24-hour essay writing service. For our essay writer service, it’s not essential to have native English speakers write the papers; what’s most important is providing legitimate and reliable writing services to improve students’ academic performance and grades. Therefore, we hire writers who are effective self-managers, motivated to write papers even on weekends, and have excellent research and creative writing skills. Additionally, communication and time-management skills are vital since we offer direct chat between clients and writers. Below is a list of skills each of our paper writers has so you know exactly who is writing your assignment.&lt;/p&gt;&lt;h4&gt;Strong research skills for major assignments&lt;/h4&gt;&lt;p&gt;Each writer you can hire on this platform has strong research skills to navigate through multiple online resources and find the most relevant and up-to-date information required for your assignment. They understand how to locate relevant journal articles, differentiate between reliable and unreliable sources, and navigate through various databases to write the highest-quality, plagiarism-free papers for you. &lt;/p&gt;&lt;p&gt;In addition to their research skills, they are familiar with various tools and software necessary for writing complex lab reports and projects and know how to utilize online libraries and Canvas for online classes and exams. We are professionals at picking out important information and using it effectively while writing your paper. These skills are crucial for any writer working on a research paper, graduate thesis, college book report/review, or other academic tasks, and our writers are pros at this.&lt;/p&gt;&lt;h4&gt;Excellent writing skills to get your paper written&lt;/h4&gt;&lt;p&gt;Our paper authors know how to write clear, concise, and formal academic papers for students. They bring a wealth of experience, crafting various types of papers daily, from essays to case studies and other college assignments. They excel at expressing complex ideas clearly and coherently, ensuring each text is both engaging and informative. With attention to detail and precision in grammar, punctuation, formatting, and referencing, our writers will produce polished and error-free custom papers, ensuring you are completely satisfied and return to order ‘write my custom essay’ again.&lt;/p&gt;&lt;h4&gt;Understanding of academic formatting&lt;/h4&gt;&lt;p&gt;A crucial skill is familiarity with the citation styles required in U.S. academia, such as APA (American Psychological Association), MLA (Modern Language Association), Chicago, etc. This includes understanding plagiarism rules and the importance of originality. Without this knowledge, it’s impossible to start writing essays for students on our website&lt;/p&gt;&lt;p&gt;Proper formatting and avoiding plagiarism are critical factors in grading and can significantly impact your education. Failure to comply can even result in expulsion from college. That’s why we take these matters seriously, ensuring that each paper is written in the required format and all sources are cited correctly to avoid any issues with plagiarism. Additionally, our paper writers are well-versed in applying other citation styles required in different countries or for specific disciplines like AMA, IEEE, ASA, SBL.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Can you write very specific or unusual essay topics?&lt;/h3&gt;&lt;/div&gt;&lt;img alt="arrow" src="/media/arrow-right-up-dark-blue.svg" width="32" height="32" decoding="async" data-nimg="1" class="arrow not-active" loading="lazy" style="color: transparent;"&gt;&lt;/div&gt;&lt;div class="body "&gt;&lt;p&gt;Yes, our website features around 250 professional academic writers, and we update our roster daily to include more writers from diverse areas with varied academic and professional experience. Therefore, if you have a challenging or unusual topic, there is a high chance that our essay service is exactly what you need. We guarantee to find and assign the most knowledgeable and reliable paper writer to work on your specific academic topic.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;What is the turnaround time for essay writing?&lt;/h3&gt;&lt;/div&gt;&lt;img alt="arrow" src="/media/arrow-right-up-dark-blue.svg" width="32" height="32" decoding="async" data-nimg="1" class="arrow not-active" loading="lazy" style="color: transparent;"&gt;&lt;/div&gt;&lt;div class="body "&gt;&lt;p&gt;Our essay writing service can handle urgent essays with the same quality as long-term academic projects. When you begin filling out our online order form, you will be able to choose the most comfortable deadline to receive your assignment. This allows you time to review everything and make any necessary adjustments before submission.&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;For last-minute essay writing services&lt;/b&gt;: Turnaround times range from 2-5 hours, and in some cases, it can be done within 1 hour.&lt;/li&gt;&lt;li&gt;&lt;b&gt;For urgent essay writing services&lt;/b&gt;: Options include 8, 16, or 24 hours.&lt;/li&gt;&lt;li&gt;&lt;b&gt;For normal orders&lt;/b&gt;: Timeframes extend from 48 hours up to 30 days.&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>VALUE</t>
@@ -5539,13 +5605,19 @@
     <t>https://www.youtube.com/c/WritersPerHour</t>
   </si>
   <si>
+    <t>WRITER_DESCRIPTION</t>
+  </si>
+  <si>
     <t>METHOD_TITLE</t>
   </si>
   <si>
-    <t>Homenew</t>
-  </si>
-  <si>
-    <t>/</t>
+    <t>SITEMAP</t>
+  </si>
+  <si>
+    <t>QatarHome</t>
+  </si>
+  <si>
+    <t>/qatar</t>
   </si>
   <si>
     <t>Essay Writing Service: We'll Write Custom Essay Just for You</t>
@@ -5554,16 +5626,28 @@
     <t>Essay writing service for students, featuring over 250 pro paper writers for hire. 100% original papers, confidentiality, and 24/7 support. Get top grades!</t>
   </si>
   <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>Easily hire an essay writer online</t>
+    <t>Qatar Home</t>
+  </si>
+  <si>
+    <t>Professional essay writers for hire</t>
+  </si>
+  <si>
+    <t>Hire someone to do your essay in Qatar; ensure it’s high quality, meets deadlines, and is plagiarism-free with our custom writing services!</t>
   </si>
   <si>
     <t>multi</t>
   </si>
   <si>
     <t>How to order an essay</t>
+  </si>
+  <si>
+    <t>What students say</t>
+  </si>
+  <si>
+    <t>Place an order</t>
+  </si>
+  <si>
+    <t>severe</t>
   </si>
 </sst>
 </file>
@@ -5585,18 +5669,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -6125,7 +6209,7 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6264,12 +6348,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6287,14 +6371,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -8123,7 +8207,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1807</v>
+        <v>1829</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>13</v>
@@ -8131,77 +8215,77 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1808</v>
+        <v>1830</v>
       </c>
       <c r="B2" t="s">
-        <v>1809</v>
+        <v>1831</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>1810</v>
+        <v>1832</v>
       </c>
       <c r="B3" t="s">
-        <v>1811</v>
+        <v>1833</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>1812</v>
+        <v>1834</v>
       </c>
       <c r="B4" t="s">
-        <v>1813</v>
+        <v>1835</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>1814</v>
+        <v>1836</v>
       </c>
       <c r="B5" t="s">
-        <v>1815</v>
+        <v>1837</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>1816</v>
+        <v>1838</v>
       </c>
       <c r="B6" t="s">
-        <v>1817</v>
+        <v>1839</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>1818</v>
+        <v>1840</v>
       </c>
       <c r="B7" t="s">
-        <v>1819</v>
+        <v>1841</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>1820</v>
+        <v>1842</v>
       </c>
       <c r="B8" t="s">
-        <v>1821</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>1822</v>
+        <v>1844</v>
       </c>
       <c r="B9" t="s">
-        <v>1823</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>1824</v>
+        <v>1846</v>
       </c>
       <c r="B10">
         <v>11223</v>
@@ -8209,15 +8293,15 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1825</v>
+        <v>1847</v>
       </c>
       <c r="B11" t="s">
-        <v>1826</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1827</v>
+        <v>1849</v>
       </c>
       <c r="B12" t="s">
         <v>327</v>
@@ -8225,15 +8309,15 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1828</v>
+        <v>1850</v>
       </c>
       <c r="B13" t="s">
-        <v>1829</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>1830</v>
+        <v>1852</v>
       </c>
       <c r="B14">
         <v>2024</v>
@@ -8241,10 +8325,10 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>1831</v>
+        <v>1853</v>
       </c>
       <c r="B15" t="s">
-        <v>1832</v>
+        <v>1854</v>
       </c>
     </row>
   </sheetData>
@@ -8259,7 +8343,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M77" sqref="M77"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="3"/>
@@ -8430,24 +8514,30 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1"/>
   <cols>
-    <col min="6" max="6" width="17.2857142857143" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="9" width="23.1428571428571" customWidth="1"/>
-    <col min="10" max="10" width="12.2857142857143" customWidth="1"/>
-    <col min="11" max="11" width="15.7142857142857" customWidth="1"/>
-    <col min="12" max="12" width="20.2857142857143" customWidth="1"/>
-    <col min="13" max="13" width="13.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="12.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="21.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="23.4285714285714" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="15.7142857142857" customWidth="1"/>
+    <col min="10" max="10" width="15.2857142857143" customWidth="1"/>
+    <col min="11" max="11" width="23.1428571428571" customWidth="1"/>
+    <col min="12" max="12" width="16.2857142857143" customWidth="1"/>
+    <col min="13" max="13" width="12.2857142857143" customWidth="1"/>
+    <col min="14" max="14" width="15.7142857142857" customWidth="1"/>
+    <col min="15" max="15" width="20.2857142857143" customWidth="1"/>
+    <col min="16" max="16" width="13.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8464,57 +8554,93 @@
         <v>165</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>1855</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>1856</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>1833</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="Q1" s="1" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>1834</v>
+        <v>1858</v>
       </c>
       <c r="B2" t="s">
-        <v>1835</v>
+        <v>1859</v>
       </c>
       <c r="C2" t="s">
-        <v>1836</v>
+        <v>1860</v>
       </c>
       <c r="D2" t="s">
-        <v>1837</v>
+        <v>1861</v>
       </c>
       <c r="E2" t="s">
-        <v>1838</v>
+        <v>1862</v>
       </c>
       <c r="F2" t="s">
-        <v>1839</v>
+        <v>1863</v>
       </c>
       <c r="G2" t="s">
-        <v>1840</v>
+        <v>1864</v>
       </c>
       <c r="H2" t="s">
-        <v>1840</v>
+        <v>1865</v>
       </c>
       <c r="I2" t="s">
-        <v>1841</v>
+        <v>1866</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1865</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1868</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1865</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1865</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1865</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1865</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1869</v>
       </c>
     </row>
   </sheetData>
@@ -21517,387 +21643,305 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="43.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="21.3142857142857" customWidth="1"/>
+    <col min="2" max="2" width="14.1809523809524" customWidth="1"/>
+    <col min="3" max="3" width="21.4190476190476" customWidth="1"/>
+    <col min="4" max="4" width="15.2666666666667" customWidth="1"/>
+    <col min="5" max="5" width="12.7333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1780</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1781</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4" t="s">
         <v>1782</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B2" t="s">
         <v>1783</v>
       </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="C2" t="s">
         <v>1784</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>1785</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>1786</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:5">
+    <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>1784</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1785</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
+        <v>1782</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
       <c r="D3" t="s">
         <v>1787</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4" t="s">
         <v>1788</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>1784</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1785</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1787</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1789</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C5" t="s">
         <v>1784</v>
       </c>
-      <c r="B5" t="s">
-        <v>1785</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
       <c r="D5" t="s">
-        <v>1787</v>
+        <v>1791</v>
       </c>
       <c r="E5" t="s">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>1784</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1791</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
+        <v>1789</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6"/>
       <c r="D6" t="s">
-        <v>1792</v>
-      </c>
-      <c r="E6" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>1784</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1793</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
+        <v>1789</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7"/>
       <c r="D7" t="s">
         <v>1794</v>
       </c>
-      <c r="E7" t="s">
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
         <v>1795</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>1784</v>
-      </c>
       <c r="B8" t="s">
-        <v>1793</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1792</v>
-      </c>
+        <v>1796</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
       <c r="E8" t="s">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>1797</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>1784</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1793</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1792</v>
-      </c>
-      <c r="E9" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>1795</v>
+      </c>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>1784</v>
+        <v>1800</v>
       </c>
       <c r="B10" t="s">
-        <v>1793</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1786</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>1801</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10" t="s">
+        <v>1802</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>1784</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1785</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1787</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1797</v>
+        <v>1800</v>
+      </c>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11" t="s">
+        <v>1804</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>1784</v>
+        <v>1805</v>
       </c>
       <c r="B12" t="s">
-        <v>1793</v>
-      </c>
-      <c r="C12">
-        <v>6</v>
+        <v>1806</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1807</v>
       </c>
       <c r="D12" t="s">
-        <v>1792</v>
+        <v>1808</v>
       </c>
       <c r="E12" t="s">
-        <v>372</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1785</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
+        <v>1805</v>
+      </c>
+      <c r="B13"/>
+      <c r="C13"/>
       <c r="D13" t="s">
-        <v>1786</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1785</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
+        <v>1805</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14"/>
       <c r="D14" t="s">
-        <v>1787</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>1798</v>
+        <v>1812</v>
       </c>
       <c r="B15" t="s">
-        <v>1785</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1787</v>
-      </c>
+        <v>1813</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
       <c r="E15" t="s">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>1814</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1785</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1787</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>1812</v>
+      </c>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1791</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
+        <v>1817</v>
+      </c>
+      <c r="B17"/>
+      <c r="C17" t="s">
+        <v>1818</v>
       </c>
       <c r="D17" t="s">
-        <v>1794</v>
+        <v>1819</v>
       </c>
       <c r="E17" t="s">
-        <v>1800</v>
+        <v>1820</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1821</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1791</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1792</v>
-      </c>
+        <v>1817</v>
+      </c>
+      <c r="B18"/>
+      <c r="C18" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D18"/>
       <c r="E18" t="s">
-        <v>1801</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1802</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1794</v>
-      </c>
+        <v>1817</v>
+      </c>
+      <c r="B19"/>
+      <c r="C19" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D19"/>
       <c r="E19" t="s">
-        <v>1803</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1802</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1792</v>
-      </c>
+        <v>1817</v>
+      </c>
+      <c r="B20"/>
+      <c r="C20" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D20"/>
       <c r="E20" t="s">
-        <v>1804</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1793</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1794</v>
-      </c>
+        <v>1817</v>
+      </c>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
       <c r="E21" t="s">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1793</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1792</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1806</v>
+        <v>1828</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="https://yeti-cms.dev/yeti/main/articles/edit/162"/>
-    <hyperlink ref="A2" r:id="rId1" display="https://yeti-cms.dev/yeti/main/articles/edit/162"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/src/test/resources/testdata/DataCMS.xlsx
+++ b/src/test/resources/testdata/DataCMS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="17250" firstSheet="7" activeTab="11"/>
+    <workbookView windowHeight="17850" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="sampleDetail" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4208" uniqueCount="2013">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4222" uniqueCount="2014">
   <si>
     <t>NAME</t>
   </si>
@@ -6077,6 +6077,9 @@
   </si>
   <si>
     <t>severe</t>
+  </si>
+  <si>
+    <t>/qatar2</t>
   </si>
 </sst>
 </file>
@@ -6275,7 +6278,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6497,6 +6500,9 @@
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
+    </fill>
+    <fill>
+      <patternFill/>
     </fill>
   </fills>
   <borders count="10">
@@ -6768,7 +6774,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -6833,6 +6839,9 @@
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7318,17 +7327,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="19.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="33.2857142857143" customWidth="1"/>
-    <col min="5" max="5" width="33.1428571428571" customWidth="1"/>
-    <col min="6" max="6" width="15.8571428571429" customWidth="1"/>
-    <col min="7" max="7" width="16.2857142857143" customWidth="1"/>
-    <col min="8" max="8" width="23.4285714285714" customWidth="1"/>
-    <col min="9" max="9" width="16.2857142857143" customWidth="1"/>
-    <col min="12" max="12" width="16.1428571428571" customWidth="1"/>
-    <col min="13" max="13" width="18.8571428571429" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.0"/>
+    <col min="2" max="2" customWidth="true" width="19.4285714285714"/>
+    <col min="3" max="3" customWidth="true" width="31.0"/>
+    <col min="4" max="4" customWidth="true" width="33.2857142857143"/>
+    <col min="5" max="5" customWidth="true" width="33.1428571428571"/>
+    <col min="6" max="6" customWidth="true" width="15.8571428571429"/>
+    <col min="7" max="7" customWidth="true" width="16.2857142857143"/>
+    <col min="8" max="8" customWidth="true" width="23.4285714285714"/>
+    <col min="9" max="9" customWidth="true" width="16.2857142857143"/>
+    <col min="12" max="12" customWidth="true" width="16.1428571428571"/>
+    <col min="13" max="13" customWidth="true" width="18.8571428571429"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" spans="1:14">
@@ -8627,12 +8636,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="21.3142857142857" customWidth="1"/>
-    <col min="2" max="2" width="14.1809523809524" customWidth="1"/>
-    <col min="3" max="3" width="21.4190476190476" customWidth="1"/>
-    <col min="4" max="4" width="15.2666666666667" customWidth="1"/>
-    <col min="5" max="5" width="12.7333333333333" customWidth="1"/>
-    <col min="6" max="6" width="15.2761904761905" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="21.3142857142857"/>
+    <col min="2" max="2" customWidth="true" width="14.1809523809524"/>
+    <col min="3" max="3" customWidth="true" width="21.4190476190476"/>
+    <col min="4" max="4" customWidth="true" width="15.2666666666667"/>
+    <col min="5" max="5" customWidth="true" width="12.7333333333333"/>
+    <col min="6" max="6" customWidth="true" width="15.2761904761905"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -8659,14 +8668,14 @@
       <c r="A2" s="2" t="s">
         <v>1909</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>1910</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>1911</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>1912</v>
       </c>
     </row>
@@ -8674,7 +8683,7 @@
       <c r="A3" s="2" t="s">
         <v>1909</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>1913</v>
       </c>
     </row>
@@ -8682,236 +8691,236 @@
       <c r="A4" s="2" t="s">
         <v>1909</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>1914</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>1915</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>1916</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>1917</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>1918</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>1919</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>1915</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>1920</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>1915</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>1921</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>1922</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>1923</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>1924</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="0">
         <v>1925</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>1922</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="0">
         <v>1926</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>1927</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>1928</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
         <v>1929</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="s" s="0">
         <v>1930</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>1927</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="s" s="0">
         <v>1931</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>1932</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>1933</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>1934</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>1935</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="s" s="0">
         <v>1936</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>1932</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>1937</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>1932</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>1938</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>1939</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>1940</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="0">
         <v>1941</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" t="s" s="0">
         <v>1942</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>1939</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" t="s" s="0">
         <v>1943</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>1944</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>1945</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>1946</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="0">
         <v>1947</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" t="s" s="0">
         <v>1948</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>1944</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>1949</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="s" s="0">
         <v>1950</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>1944</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>1951</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="0">
         <v>1952</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>1944</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="0">
         <v>1953</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" t="s" s="0">
         <v>1954</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>1944</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" t="s" s="0">
         <v>1955</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:6">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>1907</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" t="s" s="0">
         <v>1956</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="s" s="0">
         <v>1957</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" t="s" s="0">
         <v>1958</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" t="s" s="0">
         <v>1959</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="1:6">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>1907</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="s" s="0">
         <v>1960</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" t="s" s="0">
         <v>1961</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:6">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>1907</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" t="s" s="0">
         <v>1962</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" t="s" s="0">
         <v>1963</v>
       </c>
     </row>
@@ -8919,10 +8928,10 @@
       <c r="A25" s="2" t="s">
         <v>1907</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" t="s" s="0">
         <v>1964</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" t="s" s="0">
         <v>1965</v>
       </c>
     </row>
@@ -8930,10 +8939,10 @@
       <c r="A26" s="2" t="s">
         <v>1907</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" t="s" s="0">
         <v>1966</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" t="s" s="0">
         <v>1967</v>
       </c>
     </row>
@@ -8941,10 +8950,10 @@
       <c r="A27" s="2" t="s">
         <v>1907</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" t="s" s="0">
         <v>1968</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" t="s" s="0">
         <v>1969</v>
       </c>
     </row>
@@ -8952,10 +8961,10 @@
       <c r="A28" s="2" t="s">
         <v>1907</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" t="s" s="0">
         <v>1970</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" t="s" s="0">
         <v>1971</v>
       </c>
     </row>
@@ -8963,7 +8972,7 @@
       <c r="A29" s="2" t="s">
         <v>1907</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" t="s" s="0">
         <v>1972</v>
       </c>
     </row>
@@ -8996,120 +9005,120 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1974</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>1975</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>1976</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>1977</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>1978</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>1979</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>1980</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>1981</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>1982</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>1983</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>1984</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>1985</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>1986</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>1987</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>1988</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>1989</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>1990</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0">
         <v>11223</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>1991</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>1992</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>1993</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>1994</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>1995</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>1996</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0">
         <v>2024</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>1997</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>1998</v>
       </c>
     </row>
@@ -9125,24 +9134,24 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="3"/>
   <cols>
-    <col min="3" max="3" width="12.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="21.2857142857143" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="23.4285714285714" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="15.7142857142857" customWidth="1"/>
-    <col min="10" max="10" width="15.2857142857143" customWidth="1"/>
-    <col min="11" max="11" width="23.1428571428571" customWidth="1"/>
-    <col min="12" max="12" width="16.2857142857143" customWidth="1"/>
-    <col min="13" max="13" width="12.2857142857143" customWidth="1"/>
-    <col min="14" max="14" width="15.7142857142857" customWidth="1"/>
-    <col min="15" max="15" width="20.2857142857143" customWidth="1"/>
-    <col min="16" max="16" width="13.1428571428571" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="12.7142857142857"/>
+    <col min="4" max="4" customWidth="true" width="21.2857142857143"/>
+    <col min="6" max="6" customWidth="true" width="15.0"/>
+    <col min="7" max="7" customWidth="true" width="23.4285714285714"/>
+    <col min="8" max="8" customWidth="true" width="10.0"/>
+    <col min="9" max="9" customWidth="true" width="15.7142857142857"/>
+    <col min="10" max="10" customWidth="true" width="15.2857142857143"/>
+    <col min="11" max="11" customWidth="true" width="23.1428571428571"/>
+    <col min="12" max="12" customWidth="true" width="16.2857142857143"/>
+    <col min="13" max="13" customWidth="true" width="12.2857142857143"/>
+    <col min="14" max="14" customWidth="true" width="15.7142857142857"/>
+    <col min="15" max="15" customWidth="true" width="20.2857142857143"/>
+    <col min="16" max="16" customWidth="true" width="13.1428571428571"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -9197,67 +9206,106 @@
       <c r="Q1" s="1" t="s">
         <v>2001</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1907</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>2002</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>2003</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>2004</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>2005</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>2006</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>2007</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>2008</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>2009</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>2010</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>2008</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>2011</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" t="s" s="0">
         <v>2008</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" t="s" s="0">
         <v>2008</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" t="s" s="0">
         <v>2008</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" t="s" s="0">
         <v>2008</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" t="s" s="0">
         <v>2012</v>
       </c>
-      <c r="R2" s="3"/>
-    </row>
-    <row r="3" spans="10:12">
-      <c r="J3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="R2" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s" s="0">
+        <v>1907</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>2013</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>2003</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>2004</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>2005</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>2006</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>2007</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>2009</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>2010</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>2011</v>
+      </c>
+      <c r="P3" t="s" s="0">
+        <v>2008</v>
+      </c>
+      <c r="Q3" t="s" s="0">
+        <v>2012</v>
+      </c>
+      <c r="R3" s="26" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="4" spans="10:12">
       <c r="J4" s="2"/>
@@ -9282,11 +9330,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="20.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="24.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="14.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="23.1428571428571" customWidth="1"/>
-    <col min="6" max="6" width="10.4285714285714" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.7142857142857"/>
+    <col min="2" max="2" customWidth="true" width="24.1428571428571"/>
+    <col min="3" max="3" customWidth="true" width="14.8571428571429"/>
+    <col min="4" max="4" customWidth="true" width="23.1428571428571"/>
+    <col min="6" max="6" customWidth="true" width="10.4285714285714"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:13">
@@ -9387,11 +9435,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="20.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="24.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="25.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="32.5714285714286" customWidth="1"/>
-    <col min="5" max="5" width="36.2857142857143" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.5714285714286"/>
+    <col min="2" max="2" customWidth="true" width="24.2857142857143"/>
+    <col min="3" max="3" customWidth="true" width="25.4285714285714"/>
+    <col min="4" max="4" customWidth="true" width="32.5714285714286"/>
+    <col min="5" max="5" customWidth="true" width="36.2857142857143"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" spans="1:15">
@@ -9437,7 +9485,7 @@
       <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" t="s" s="0">
         <v>182</v>
       </c>
     </row>
@@ -10551,31 +10599,31 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="9.71428571428571" customWidth="1"/>
-    <col min="2" max="2" width="12.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="16.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="23.2857142857143" customWidth="1"/>
-    <col min="5" max="5" width="9.71428571428571" customWidth="1"/>
-    <col min="6" max="6" width="19.8571428571429" customWidth="1"/>
-    <col min="7" max="7" width="9.57142857142857" customWidth="1"/>
-    <col min="8" max="8" width="6.28571428571429" customWidth="1"/>
-    <col min="9" max="9" width="11.8571428571429" customWidth="1"/>
-    <col min="10" max="10" width="9.28571428571429" customWidth="1"/>
-    <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="10" customWidth="1"/>
-    <col min="13" max="13" width="17.2857142857143" customWidth="1"/>
-    <col min="14" max="14" width="15.5714285714286" customWidth="1"/>
-    <col min="15" max="15" width="20.5714285714286" customWidth="1"/>
-    <col min="16" max="16" width="29.1428571428571" customWidth="1"/>
-    <col min="17" max="17" width="15.5714285714286" customWidth="1"/>
-    <col min="18" max="18" width="15.2857142857143" customWidth="1"/>
-    <col min="19" max="19" width="23.1428571428571" customWidth="1"/>
-    <col min="20" max="20" width="19" customWidth="1"/>
-    <col min="21" max="21" width="16.2857142857143" customWidth="1"/>
-    <col min="22" max="22" width="12.2857142857143" customWidth="1"/>
-    <col min="23" max="23" width="15.7142857142857" customWidth="1"/>
-    <col min="24" max="24" width="20.2857142857143" customWidth="1"/>
-    <col min="25" max="25" width="13.1428571428571" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="9.71428571428571"/>
+    <col min="2" max="2" customWidth="true" width="12.2857142857143"/>
+    <col min="3" max="3" customWidth="true" width="16.5714285714286"/>
+    <col min="4" max="4" customWidth="true" width="23.2857142857143"/>
+    <col min="5" max="5" customWidth="true" width="9.71428571428571"/>
+    <col min="6" max="6" customWidth="true" width="19.8571428571429"/>
+    <col min="7" max="7" customWidth="true" width="9.57142857142857"/>
+    <col min="8" max="8" customWidth="true" width="6.28571428571429"/>
+    <col min="9" max="9" customWidth="true" width="11.8571428571429"/>
+    <col min="10" max="10" customWidth="true" width="9.28571428571429"/>
+    <col min="11" max="11" customWidth="true" width="15.0"/>
+    <col min="12" max="12" customWidth="true" width="10.0"/>
+    <col min="13" max="13" customWidth="true" width="17.2857142857143"/>
+    <col min="14" max="14" customWidth="true" width="15.5714285714286"/>
+    <col min="15" max="15" customWidth="true" width="20.5714285714286"/>
+    <col min="16" max="16" customWidth="true" width="29.1428571428571"/>
+    <col min="17" max="17" customWidth="true" width="15.5714285714286"/>
+    <col min="18" max="18" customWidth="true" width="15.2857142857143"/>
+    <col min="19" max="19" customWidth="true" width="23.1428571428571"/>
+    <col min="20" max="20" customWidth="true" width="19.0"/>
+    <col min="21" max="21" customWidth="true" width="16.2857142857143"/>
+    <col min="22" max="22" customWidth="true" width="12.2857142857143"/>
+    <col min="23" max="23" customWidth="true" width="15.7142857142857"/>
+    <col min="24" max="24" customWidth="true" width="20.2857142857143"/>
+    <col min="25" max="25" customWidth="true" width="13.1428571428571"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" spans="1:25">
@@ -10656,34 +10704,34 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>279</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>280</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>281</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>282</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>283</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>284</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>285</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>286</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" t="s" s="0">
         <v>287</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>288</v>
       </c>
     </row>
@@ -10704,10 +10752,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="36.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="14.7142857142857" customWidth="1"/>
-    <col min="13" max="13" width="24.5714285714286" customWidth="1"/>
-    <col min="14" max="14" width="12.1142857142857" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="36.2857142857143"/>
+    <col min="3" max="3" customWidth="true" width="14.7142857142857"/>
+    <col min="13" max="13" customWidth="true" width="24.5714285714286"/>
+    <col min="14" max="14" customWidth="true" width="12.1142857142857"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" spans="1:14">
@@ -21834,7 +21882,7 @@
         <v>284</v>
       </c>
       <c r="I179" s="3"/>
-      <c r="R179" t="s">
+      <c r="R179" t="s" s="0">
         <v>1889</v>
       </c>
     </row>
@@ -22306,7 +22354,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>1907</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -22323,7 +22371,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>1907</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -22340,7 +22388,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>1907</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -22357,7 +22405,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>1907</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -22374,7 +22422,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>1907</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -22422,16 +22470,16 @@
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1907</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>1340</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>1341</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>1342</v>
       </c>
       <c r="R2" s="3" t="s">
@@ -22439,30 +22487,30 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>1907</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>1346</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>306</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>1347</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>1907</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>1350</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>1351</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>1352</v>
       </c>
     </row>
@@ -22470,13 +22518,13 @@
       <c r="A5" s="2" t="s">
         <v>1907</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>813</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>1341</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>1354</v>
       </c>
     </row>
@@ -22484,13 +22532,13 @@
       <c r="A6" s="2" t="s">
         <v>1907</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>1357</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>1358</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>1359</v>
       </c>
     </row>
@@ -22498,13 +22546,13 @@
       <c r="A7" s="2" t="s">
         <v>1907</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>1362</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>1351</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>1363</v>
       </c>
     </row>
@@ -22512,13 +22560,13 @@
       <c r="A8" s="2" t="s">
         <v>1907</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>1366</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>1367</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>1368</v>
       </c>
     </row>
@@ -22526,13 +22574,13 @@
       <c r="A9" s="2" t="s">
         <v>1907</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>855</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>370</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>1371</v>
       </c>
     </row>
@@ -22540,13 +22588,13 @@
       <c r="A10" s="2" t="s">
         <v>1907</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>1373</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>402</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>1374</v>
       </c>
     </row>
@@ -22554,13 +22602,13 @@
       <c r="A11" s="2" t="s">
         <v>1907</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>1377</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>327</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>1378</v>
       </c>
     </row>
@@ -22568,13 +22616,13 @@
       <c r="A12" s="2" t="s">
         <v>1907</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>1380</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>350</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>1381</v>
       </c>
     </row>
@@ -22582,13 +22630,13 @@
       <c r="A13" s="2" t="s">
         <v>1907</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>995</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>1383</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>1384</v>
       </c>
     </row>
@@ -22596,13 +22644,13 @@
       <c r="A14" s="2" t="s">
         <v>1907</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>1387</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>589</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>1388</v>
       </c>
     </row>

--- a/src/test/resources/testdata/DataCMS.xlsx
+++ b/src/test/resources/testdata/DataCMS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15740" windowHeight="8260" firstSheet="10" activeTab="11"/>
+    <workbookView windowWidth="28800" windowHeight="12450" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="sampleDetail" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,25 @@
     <sheet name="constants" sheetId="11" r:id="rId11"/>
     <sheet name="home" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4286" uniqueCount="2027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4285" uniqueCount="2026">
   <si>
     <t>NAME</t>
   </si>
@@ -6043,9 +6056,6 @@
   </si>
   <si>
     <t>SITEMAP</t>
-  </si>
-  <si>
-    <t>/qatar</t>
   </si>
   <si>
     <t>Essay Writing Service: We'll Write Custom Essay Just for You</t>
@@ -6111,12 +6121,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -6165,18 +6175,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6195,13 +6205,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -6210,8 +6213,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6226,18 +6230,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6258,7 +6254,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6272,8 +6268,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6287,30 +6306,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6343,13 +6353,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6361,7 +6425,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6373,121 +6509,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6499,19 +6521,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6552,26 +6562,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6601,16 +6611,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6625,175 +6659,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6860,54 +6870,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
     <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -7124,19 +7134,19 @@
       <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="19.3839285714286" customWidth="1"/>
+    <col min="2" max="2" width="19.3809523809524" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="33.25" customWidth="1"/>
-    <col min="5" max="5" width="33.1339285714286" customWidth="1"/>
-    <col min="6" max="6" width="15.8839285714286" customWidth="1"/>
-    <col min="7" max="7" width="16.25" customWidth="1"/>
-    <col min="8" max="8" width="23.3839285714286" customWidth="1"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
-    <col min="12" max="12" width="16.1339285714286" customWidth="1"/>
-    <col min="13" max="13" width="18.8839285714286" customWidth="1"/>
+    <col min="4" max="4" width="33.247619047619" customWidth="1"/>
+    <col min="5" max="5" width="33.1333333333333" customWidth="1"/>
+    <col min="6" max="6" width="15.8857142857143" customWidth="1"/>
+    <col min="7" max="7" width="16.247619047619" customWidth="1"/>
+    <col min="8" max="8" width="23.3809523809524" customWidth="1"/>
+    <col min="9" max="9" width="16.247619047619" customWidth="1"/>
+    <col min="12" max="12" width="16.1333333333333" customWidth="1"/>
+    <col min="13" max="13" width="18.8857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:14">
@@ -9770,18 +9780,18 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P72" sqref="P72"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="21.3839285714286" customWidth="1"/>
-    <col min="2" max="2" width="14.1339285714286" customWidth="1"/>
-    <col min="3" max="3" width="21.3839285714286" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
-    <col min="6" max="6" width="15.25" customWidth="1"/>
-    <col min="7" max="26" width="9.13392857142857" customWidth="1"/>
+    <col min="1" max="1" width="21.3809523809524" customWidth="1"/>
+    <col min="2" max="2" width="14.1333333333333" customWidth="1"/>
+    <col min="3" max="3" width="21.3809523809524" customWidth="1"/>
+    <col min="4" max="4" width="15.247619047619" customWidth="1"/>
+    <col min="5" max="5" width="12.752380952381" customWidth="1"/>
+    <col min="6" max="6" width="15.247619047619" customWidth="1"/>
+    <col min="7" max="26" width="9.13333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12" customHeight="1" spans="1:6">
@@ -11126,9 +11136,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15" customHeight="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="15" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="26" width="9.13392857142857" customWidth="1"/>
+    <col min="1" max="26" width="9.13333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12" customHeight="1" spans="1:3">
@@ -12257,28 +12267,28 @@
   <sheetPr/>
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="9.13392857142857" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="21.25" customWidth="1"/>
-    <col min="5" max="5" width="9.13392857142857" customWidth="1"/>
+    <col min="1" max="2" width="9.13333333333333" customWidth="1"/>
+    <col min="3" max="3" width="12.752380952381" customWidth="1"/>
+    <col min="4" max="4" width="21.247619047619" customWidth="1"/>
+    <col min="5" max="5" width="9.13333333333333" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="23.3839285714286" customWidth="1"/>
+    <col min="7" max="7" width="23.3809523809524" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="15.75" customWidth="1"/>
-    <col min="10" max="10" width="15.25" customWidth="1"/>
-    <col min="11" max="11" width="23.1339285714286" customWidth="1"/>
-    <col min="12" max="12" width="16.25" customWidth="1"/>
-    <col min="13" max="13" width="12.25" customWidth="1"/>
-    <col min="14" max="14" width="15.75" customWidth="1"/>
-    <col min="15" max="15" width="20.25" customWidth="1"/>
-    <col min="16" max="16" width="13.1339285714286" customWidth="1"/>
-    <col min="17" max="26" width="9.13392857142857" customWidth="1"/>
+    <col min="9" max="9" width="15.752380952381" customWidth="1"/>
+    <col min="10" max="10" width="15.247619047619" customWidth="1"/>
+    <col min="11" max="11" width="23.1333333333333" customWidth="1"/>
+    <col min="12" max="12" width="16.247619047619" customWidth="1"/>
+    <col min="13" max="13" width="12.247619047619" customWidth="1"/>
+    <col min="14" max="14" width="15.752380952381" customWidth="1"/>
+    <col min="15" max="15" width="20.247619047619" customWidth="1"/>
+    <col min="16" max="16" width="13.1333333333333" customWidth="1"/>
+    <col min="17" max="26" width="9.13333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12" customHeight="1" spans="1:18">
@@ -12341,141 +12351,137 @@
       <c r="A2" s="2" t="s">
         <v>1907</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>2006</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2007</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>2008</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>2009</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>2010</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>2011</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>2012</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>2013</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="2" t="s">
+        <v>2011</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>2014</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>2012</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="2" t="s">
+        <v>2011</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>2011</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>2011</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>2011</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>2015</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>2012</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>2012</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>2012</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>2012</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>2016</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>189</v>
-      </c>
+      <c r="R2" s="6"/>
     </row>
     <row r="3" ht="12" customHeight="1" spans="1:18">
       <c r="A3" s="2" t="s">
         <v>1907</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>2007</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>2008</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>2009</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>2010</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>2012</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>2013</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>2014</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>2011</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>2013</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>2014</v>
-      </c>
-      <c r="L3" s="4" t="s">
+      <c r="Q3" s="2" t="s">
         <v>2015</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>2012</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>2016</v>
       </c>
       <c r="R3" s="6" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="4" ht="12" customHeight="1" spans="1:17">
+    <row r="4" ht="12" customHeight="1" spans="1:18">
       <c r="A4" s="3" t="s">
         <v>1908</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>2018</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>2019</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>2020</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>2021</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>2022</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="2" t="s">
+        <v>2011</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>2023</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>2012</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="4" t="s">
+        <v>2013</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>2011</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>2024</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>2014</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>2012</v>
-      </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" s="3" t="s">
         <v>2025</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>2026</v>
-      </c>
       <c r="N4" s="2" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>1954</v>
@@ -12484,7 +12490,10 @@
         <v>1913</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>2016</v>
+        <v>2015</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="5" ht="12" customHeight="1"/>
@@ -13501,14 +13510,14 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.75" customWidth="1"/>
-    <col min="2" max="2" width="24.1339285714286" customWidth="1"/>
-    <col min="3" max="3" width="14.8839285714286" customWidth="1"/>
-    <col min="4" max="4" width="23.1339285714286" customWidth="1"/>
-    <col min="5" max="5" width="12.6339285714286" customWidth="1"/>
-    <col min="6" max="6" width="10.3839285714286" customWidth="1"/>
+    <col min="1" max="1" width="20.752380952381" customWidth="1"/>
+    <col min="2" max="2" width="24.1333333333333" customWidth="1"/>
+    <col min="3" max="3" width="14.8857142857143" customWidth="1"/>
+    <col min="4" max="4" width="23.1333333333333" customWidth="1"/>
+    <col min="5" max="5" width="12.6380952380952" customWidth="1"/>
+    <col min="6" max="6" width="10.3809523809524" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:13">
@@ -14605,14 +14614,14 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.6339285714286" customWidth="1"/>
-    <col min="2" max="2" width="24.25" customWidth="1"/>
-    <col min="3" max="3" width="25.3839285714286" customWidth="1"/>
-    <col min="4" max="4" width="32.6339285714286" customWidth="1"/>
-    <col min="5" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="26" width="9.13392857142857" customWidth="1"/>
+    <col min="1" max="1" width="20.6380952380952" customWidth="1"/>
+    <col min="2" max="2" width="24.247619047619" customWidth="1"/>
+    <col min="3" max="3" width="25.3809523809524" customWidth="1"/>
+    <col min="4" max="4" width="32.6380952380952" customWidth="1"/>
+    <col min="5" max="5" width="36.247619047619" customWidth="1"/>
+    <col min="6" max="26" width="9.13333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12" customHeight="1" spans="1:15">
@@ -16737,34 +16746,34 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.75" customWidth="1"/>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="16.6339285714286" customWidth="1"/>
-    <col min="4" max="4" width="23.25" customWidth="1"/>
-    <col min="5" max="5" width="9.75" customWidth="1"/>
-    <col min="6" max="6" width="19.8839285714286" customWidth="1"/>
-    <col min="7" max="7" width="9.63392857142857" customWidth="1"/>
-    <col min="8" max="8" width="6.25" customWidth="1"/>
-    <col min="9" max="9" width="11.8839285714286" customWidth="1"/>
-    <col min="10" max="10" width="9.25" customWidth="1"/>
+    <col min="1" max="1" width="9.75238095238095" customWidth="1"/>
+    <col min="2" max="2" width="12.247619047619" customWidth="1"/>
+    <col min="3" max="3" width="16.6380952380952" customWidth="1"/>
+    <col min="4" max="4" width="23.247619047619" customWidth="1"/>
+    <col min="5" max="5" width="9.75238095238095" customWidth="1"/>
+    <col min="6" max="6" width="19.8857142857143" customWidth="1"/>
+    <col min="7" max="7" width="9.63809523809524" customWidth="1"/>
+    <col min="8" max="8" width="6.24761904761905" customWidth="1"/>
+    <col min="9" max="9" width="11.8857142857143" customWidth="1"/>
+    <col min="10" max="10" width="9.24761904761905" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
-    <col min="13" max="13" width="17.25" customWidth="1"/>
-    <col min="14" max="14" width="15.6339285714286" customWidth="1"/>
-    <col min="15" max="15" width="20.6339285714286" customWidth="1"/>
-    <col min="16" max="16" width="29.1339285714286" customWidth="1"/>
-    <col min="17" max="17" width="15.6339285714286" customWidth="1"/>
-    <col min="18" max="18" width="15.25" customWidth="1"/>
-    <col min="19" max="19" width="23.1339285714286" customWidth="1"/>
+    <col min="13" max="13" width="17.247619047619" customWidth="1"/>
+    <col min="14" max="14" width="15.6380952380952" customWidth="1"/>
+    <col min="15" max="15" width="20.6380952380952" customWidth="1"/>
+    <col min="16" max="16" width="29.1333333333333" customWidth="1"/>
+    <col min="17" max="17" width="15.6380952380952" customWidth="1"/>
+    <col min="18" max="18" width="15.247619047619" customWidth="1"/>
+    <col min="19" max="19" width="23.1333333333333" customWidth="1"/>
     <col min="20" max="20" width="19" customWidth="1"/>
-    <col min="21" max="21" width="16.25" customWidth="1"/>
-    <col min="22" max="22" width="12.25" customWidth="1"/>
-    <col min="23" max="23" width="15.75" customWidth="1"/>
-    <col min="24" max="24" width="20.25" customWidth="1"/>
-    <col min="25" max="25" width="13.1339285714286" customWidth="1"/>
-    <col min="26" max="26" width="9.13392857142857" customWidth="1"/>
+    <col min="21" max="21" width="16.247619047619" customWidth="1"/>
+    <col min="22" max="22" width="12.247619047619" customWidth="1"/>
+    <col min="23" max="23" width="15.752380952381" customWidth="1"/>
+    <col min="24" max="24" width="20.247619047619" customWidth="1"/>
+    <col min="25" max="25" width="13.1333333333333" customWidth="1"/>
+    <col min="26" max="26" width="9.13333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12" customHeight="1" spans="1:25">
@@ -17890,15 +17899,15 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="36.25" customWidth="1"/>
-    <col min="2" max="2" width="9.13392857142857" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="12" width="9.13392857142857" customWidth="1"/>
-    <col min="13" max="13" width="24.6339285714286" customWidth="1"/>
-    <col min="14" max="14" width="12.1339285714286" customWidth="1"/>
-    <col min="15" max="26" width="9.13392857142857" customWidth="1"/>
+    <col min="1" max="1" width="36.247619047619" customWidth="1"/>
+    <col min="2" max="2" width="9.13333333333333" customWidth="1"/>
+    <col min="3" max="3" width="14.752380952381" customWidth="1"/>
+    <col min="4" max="12" width="9.13333333333333" customWidth="1"/>
+    <col min="13" max="13" width="24.6380952380952" customWidth="1"/>
+    <col min="14" max="14" width="12.1333333333333" customWidth="1"/>
+    <col min="15" max="26" width="9.13333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12" customHeight="1" spans="1:14">
@@ -19038,9 +19047,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="9.13392857142857" customWidth="1"/>
+    <col min="1" max="26" width="9.13333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12" customHeight="1" spans="1:10">
@@ -25993,9 +26002,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="9.13392857142857" customWidth="1"/>
+    <col min="1" max="26" width="9.13333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12" customHeight="1" spans="1:9">
@@ -32011,13 +32020,13 @@
   <sheetPr/>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView topLeftCell="O48" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="15" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="26" width="9.13392857142857" customWidth="1"/>
+    <col min="1" max="26" width="9.13333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12" customHeight="1" spans="1:5">
@@ -33276,9 +33285,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="9.13392857142857" customWidth="1"/>
+    <col min="1" max="26" width="9.13333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12" customHeight="1" spans="1:4">

--- a/src/test/resources/testdata/DataCMS.xlsx
+++ b/src/test/resources/testdata/DataCMS.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4285" uniqueCount="2026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4286" uniqueCount="2026">
   <si>
     <t>NAME</t>
   </si>
@@ -6326,7 +6326,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6536,6 +6536,9 @@
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
+    </fill>
+    <fill>
+      <patternFill/>
     </fill>
   </fills>
   <borders count="10">
@@ -6807,7 +6810,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6865,6 +6868,9 @@
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7136,17 +7142,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="19.3809523809524" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="33.247619047619" customWidth="1"/>
-    <col min="5" max="5" width="33.1333333333333" customWidth="1"/>
-    <col min="6" max="6" width="15.8857142857143" customWidth="1"/>
-    <col min="7" max="7" width="16.247619047619" customWidth="1"/>
-    <col min="8" max="8" width="23.3809523809524" customWidth="1"/>
-    <col min="9" max="9" width="16.247619047619" customWidth="1"/>
-    <col min="12" max="12" width="16.1333333333333" customWidth="1"/>
-    <col min="13" max="13" width="18.8857142857143" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.0"/>
+    <col min="2" max="2" customWidth="true" width="19.3809523809524"/>
+    <col min="3" max="3" customWidth="true" width="31.0"/>
+    <col min="4" max="4" customWidth="true" width="33.247619047619"/>
+    <col min="5" max="5" customWidth="true" width="33.1333333333333"/>
+    <col min="6" max="6" customWidth="true" width="15.8857142857143"/>
+    <col min="7" max="7" customWidth="true" width="16.247619047619"/>
+    <col min="8" max="8" customWidth="true" width="23.3809523809524"/>
+    <col min="9" max="9" customWidth="true" width="16.247619047619"/>
+    <col min="12" max="12" customWidth="true" width="16.1333333333333"/>
+    <col min="13" max="13" customWidth="true" width="18.8857142857143"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:14">
@@ -9785,13 +9791,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="21.3809523809524" customWidth="1"/>
-    <col min="2" max="2" width="14.1333333333333" customWidth="1"/>
-    <col min="3" max="3" width="21.3809523809524" customWidth="1"/>
-    <col min="4" max="4" width="15.247619047619" customWidth="1"/>
-    <col min="5" max="5" width="12.752380952381" customWidth="1"/>
-    <col min="6" max="6" width="15.247619047619" customWidth="1"/>
-    <col min="7" max="26" width="9.13333333333333" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="21.3809523809524"/>
+    <col min="2" max="2" customWidth="true" width="14.1333333333333"/>
+    <col min="3" max="3" customWidth="true" width="21.3809523809524"/>
+    <col min="4" max="4" customWidth="true" width="15.247619047619"/>
+    <col min="5" max="5" customWidth="true" width="12.752380952381"/>
+    <col min="6" max="6" customWidth="true" width="15.247619047619"/>
+    <col min="7" max="26" customWidth="true" width="9.13333333333333"/>
   </cols>
   <sheetData>
     <row r="1" ht="12" customHeight="1" spans="1:6">
@@ -11138,7 +11144,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="15" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="26" width="9.13333333333333" customWidth="1"/>
+    <col min="1" max="26" customWidth="true" width="9.13333333333333"/>
   </cols>
   <sheetData>
     <row r="1" ht="12" customHeight="1" spans="1:3">
@@ -12273,22 +12279,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="9.13333333333333" customWidth="1"/>
-    <col min="3" max="3" width="12.752380952381" customWidth="1"/>
-    <col min="4" max="4" width="21.247619047619" customWidth="1"/>
-    <col min="5" max="5" width="9.13333333333333" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="23.3809523809524" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="15.752380952381" customWidth="1"/>
-    <col min="10" max="10" width="15.247619047619" customWidth="1"/>
-    <col min="11" max="11" width="23.1333333333333" customWidth="1"/>
-    <col min="12" max="12" width="16.247619047619" customWidth="1"/>
-    <col min="13" max="13" width="12.247619047619" customWidth="1"/>
-    <col min="14" max="14" width="15.752380952381" customWidth="1"/>
-    <col min="15" max="15" width="20.247619047619" customWidth="1"/>
-    <col min="16" max="16" width="13.1333333333333" customWidth="1"/>
-    <col min="17" max="26" width="9.13333333333333" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" width="9.13333333333333"/>
+    <col min="3" max="3" customWidth="true" width="12.752380952381"/>
+    <col min="4" max="4" customWidth="true" width="21.247619047619"/>
+    <col min="5" max="5" customWidth="true" width="9.13333333333333"/>
+    <col min="6" max="6" customWidth="true" width="15.0"/>
+    <col min="7" max="7" customWidth="true" width="23.3809523809524"/>
+    <col min="8" max="8" customWidth="true" width="10.0"/>
+    <col min="9" max="9" customWidth="true" width="15.752380952381"/>
+    <col min="10" max="10" customWidth="true" width="15.247619047619"/>
+    <col min="11" max="11" customWidth="true" width="23.1333333333333"/>
+    <col min="12" max="12" customWidth="true" width="16.247619047619"/>
+    <col min="13" max="13" customWidth="true" width="12.247619047619"/>
+    <col min="14" max="14" customWidth="true" width="15.752380952381"/>
+    <col min="15" max="15" customWidth="true" width="20.247619047619"/>
+    <col min="16" max="16" customWidth="true" width="13.1333333333333"/>
+    <col min="17" max="26" customWidth="true" width="9.13333333333333"/>
   </cols>
   <sheetData>
     <row r="1" ht="12" customHeight="1" spans="1:18">
@@ -13512,12 +13518,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.752380952381" customWidth="1"/>
-    <col min="2" max="2" width="24.1333333333333" customWidth="1"/>
-    <col min="3" max="3" width="14.8857142857143" customWidth="1"/>
-    <col min="4" max="4" width="23.1333333333333" customWidth="1"/>
-    <col min="5" max="5" width="12.6380952380952" customWidth="1"/>
-    <col min="6" max="6" width="10.3809523809524" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.752380952381"/>
+    <col min="2" max="2" customWidth="true" width="24.1333333333333"/>
+    <col min="3" max="3" customWidth="true" width="14.8857142857143"/>
+    <col min="4" max="4" customWidth="true" width="23.1333333333333"/>
+    <col min="5" max="5" customWidth="true" width="12.6380952380952"/>
+    <col min="6" max="6" customWidth="true" width="10.3809523809524"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:13">
@@ -14616,12 +14622,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.6380952380952" customWidth="1"/>
-    <col min="2" max="2" width="24.247619047619" customWidth="1"/>
-    <col min="3" max="3" width="25.3809523809524" customWidth="1"/>
-    <col min="4" max="4" width="32.6380952380952" customWidth="1"/>
-    <col min="5" max="5" width="36.247619047619" customWidth="1"/>
-    <col min="6" max="26" width="9.13333333333333" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.6380952380952"/>
+    <col min="2" max="2" customWidth="true" width="24.247619047619"/>
+    <col min="3" max="3" customWidth="true" width="25.3809523809524"/>
+    <col min="4" max="4" customWidth="true" width="32.6380952380952"/>
+    <col min="5" max="5" customWidth="true" width="36.247619047619"/>
+    <col min="6" max="26" customWidth="true" width="9.13333333333333"/>
   </cols>
   <sheetData>
     <row r="1" ht="12" customHeight="1" spans="1:15">
@@ -16748,32 +16754,32 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.75238095238095" customWidth="1"/>
-    <col min="2" max="2" width="12.247619047619" customWidth="1"/>
-    <col min="3" max="3" width="16.6380952380952" customWidth="1"/>
-    <col min="4" max="4" width="23.247619047619" customWidth="1"/>
-    <col min="5" max="5" width="9.75238095238095" customWidth="1"/>
-    <col min="6" max="6" width="19.8857142857143" customWidth="1"/>
-    <col min="7" max="7" width="9.63809523809524" customWidth="1"/>
-    <col min="8" max="8" width="6.24761904761905" customWidth="1"/>
-    <col min="9" max="9" width="11.8857142857143" customWidth="1"/>
-    <col min="10" max="10" width="9.24761904761905" customWidth="1"/>
-    <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="10" customWidth="1"/>
-    <col min="13" max="13" width="17.247619047619" customWidth="1"/>
-    <col min="14" max="14" width="15.6380952380952" customWidth="1"/>
-    <col min="15" max="15" width="20.6380952380952" customWidth="1"/>
-    <col min="16" max="16" width="29.1333333333333" customWidth="1"/>
-    <col min="17" max="17" width="15.6380952380952" customWidth="1"/>
-    <col min="18" max="18" width="15.247619047619" customWidth="1"/>
-    <col min="19" max="19" width="23.1333333333333" customWidth="1"/>
-    <col min="20" max="20" width="19" customWidth="1"/>
-    <col min="21" max="21" width="16.247619047619" customWidth="1"/>
-    <col min="22" max="22" width="12.247619047619" customWidth="1"/>
-    <col min="23" max="23" width="15.752380952381" customWidth="1"/>
-    <col min="24" max="24" width="20.247619047619" customWidth="1"/>
-    <col min="25" max="25" width="13.1333333333333" customWidth="1"/>
-    <col min="26" max="26" width="9.13333333333333" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="9.75238095238095"/>
+    <col min="2" max="2" customWidth="true" width="12.247619047619"/>
+    <col min="3" max="3" customWidth="true" width="16.6380952380952"/>
+    <col min="4" max="4" customWidth="true" width="23.247619047619"/>
+    <col min="5" max="5" customWidth="true" width="9.75238095238095"/>
+    <col min="6" max="6" customWidth="true" width="19.8857142857143"/>
+    <col min="7" max="7" customWidth="true" width="9.63809523809524"/>
+    <col min="8" max="8" customWidth="true" width="6.24761904761905"/>
+    <col min="9" max="9" customWidth="true" width="11.8857142857143"/>
+    <col min="10" max="10" customWidth="true" width="9.24761904761905"/>
+    <col min="11" max="11" customWidth="true" width="15.0"/>
+    <col min="12" max="12" customWidth="true" width="10.0"/>
+    <col min="13" max="13" customWidth="true" width="17.247619047619"/>
+    <col min="14" max="14" customWidth="true" width="15.6380952380952"/>
+    <col min="15" max="15" customWidth="true" width="20.6380952380952"/>
+    <col min="16" max="16" customWidth="true" width="29.1333333333333"/>
+    <col min="17" max="17" customWidth="true" width="15.6380952380952"/>
+    <col min="18" max="18" customWidth="true" width="15.247619047619"/>
+    <col min="19" max="19" customWidth="true" width="23.1333333333333"/>
+    <col min="20" max="20" customWidth="true" width="19.0"/>
+    <col min="21" max="21" customWidth="true" width="16.247619047619"/>
+    <col min="22" max="22" customWidth="true" width="12.247619047619"/>
+    <col min="23" max="23" customWidth="true" width="15.752380952381"/>
+    <col min="24" max="24" customWidth="true" width="20.247619047619"/>
+    <col min="25" max="25" customWidth="true" width="13.1333333333333"/>
+    <col min="26" max="26" customWidth="true" width="9.13333333333333"/>
   </cols>
   <sheetData>
     <row r="1" ht="12" customHeight="1" spans="1:25">
@@ -17901,13 +17907,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="36.247619047619" customWidth="1"/>
-    <col min="2" max="2" width="9.13333333333333" customWidth="1"/>
-    <col min="3" max="3" width="14.752380952381" customWidth="1"/>
-    <col min="4" max="12" width="9.13333333333333" customWidth="1"/>
-    <col min="13" max="13" width="24.6380952380952" customWidth="1"/>
-    <col min="14" max="14" width="12.1333333333333" customWidth="1"/>
-    <col min="15" max="26" width="9.13333333333333" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="36.247619047619"/>
+    <col min="2" max="2" customWidth="true" width="9.13333333333333"/>
+    <col min="3" max="3" customWidth="true" width="14.752380952381"/>
+    <col min="4" max="12" customWidth="true" width="9.13333333333333"/>
+    <col min="13" max="13" customWidth="true" width="24.6380952380952"/>
+    <col min="14" max="14" customWidth="true" width="12.1333333333333"/>
+    <col min="15" max="26" customWidth="true" width="9.13333333333333"/>
   </cols>
   <sheetData>
     <row r="1" ht="12" customHeight="1" spans="1:14">
@@ -19049,7 +19055,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="9.13333333333333" customWidth="1"/>
+    <col min="1" max="26" customWidth="true" width="9.13333333333333"/>
   </cols>
   <sheetData>
     <row r="1" ht="12" customHeight="1" spans="1:10">
@@ -26004,7 +26010,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="9.13333333333333" customWidth="1"/>
+    <col min="1" max="26" customWidth="true" width="9.13333333333333"/>
   </cols>
   <sheetData>
     <row r="1" ht="12" customHeight="1" spans="1:9">
@@ -32026,7 +32032,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="15" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="26" width="9.13333333333333" customWidth="1"/>
+    <col min="1" max="26" customWidth="true" width="9.13333333333333"/>
   </cols>
   <sheetData>
     <row r="1" ht="12" customHeight="1" spans="1:5">
@@ -33287,7 +33293,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="9.13333333333333" customWidth="1"/>
+    <col min="1" max="26" customWidth="true" width="9.13333333333333"/>
   </cols>
   <sheetData>
     <row r="1" ht="12" customHeight="1" spans="1:4">
@@ -33317,7 +33323,7 @@
       <c r="D2" s="2" t="s">
         <v>1342</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="25" t="s">
         <v>189</v>
       </c>
     </row>
